--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,21 @@
           <t>직업/레벨</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>무릉 최고 층수</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>최근 무릉 기록</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>최근 무릉 기록 일자</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -441,7 +456,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>팔라딘/Lv.243</t>
+          <t>Lv.243</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>팔라딘</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -453,7 +488,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.258</t>
+          <t>Lv.258</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -465,7 +520,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아델/Lv.258</t>
+          <t>Lv.258</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -477,7 +552,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>엔젤릭버스터/Lv.256</t>
+          <t>Lv.256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -489,7 +584,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>스트라이커/Lv.251</t>
+          <t>Lv.251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>스트라이커</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -501,7 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>나이트로드/Lv.249</t>
+          <t>Lv.249</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -513,7 +648,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>호영/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -525,7 +680,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>에반/Lv.241</t>
+          <t>Lv.241</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -537,7 +712,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.232</t>
+          <t>Lv.232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -549,7 +744,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>섀도어/Lv.274</t>
+          <t>Lv.274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -561,7 +776,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)/Lv.272</t>
+          <t>Lv.272</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>아크메이지(불,독)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
@@ -573,7 +808,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>데몬어벤져/Lv.267</t>
+          <t>Lv.267</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>데몬어벤져</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -585,7 +840,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>팬텀/Lv.261</t>
+          <t>Lv.261</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
@@ -597,7 +872,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.260</t>
+          <t>Lv.260</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -609,7 +904,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>아델/Lv.260</t>
+          <t>Lv.260</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -621,7 +936,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.258</t>
+          <t>Lv.258</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
@@ -633,7 +968,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>비숍/Lv.257</t>
+          <t>Lv.257</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
@@ -645,7 +1000,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>메르세데스/Lv.254</t>
+          <t>Lv.254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>메르세데스</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -657,7 +1032,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>섀도어/Lv.254</t>
+          <t>Lv.254</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -669,7 +1064,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)/Lv.253</t>
+          <t>Lv.253</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>아크메이지(불,독)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -681,7 +1096,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>은월/Lv.253</t>
+          <t>Lv.253</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>은월</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -693,7 +1128,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>엔젤릭버스터/Lv.252</t>
+          <t>Lv.252</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -705,7 +1160,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>아란/Lv.252</t>
+          <t>Lv.252</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>아란</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021년  2월 22일</t>
         </is>
       </c>
     </row>
@@ -717,7 +1192,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.252</t>
+          <t>Lv.252</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -729,7 +1224,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.252</t>
+          <t>Lv.252</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
@@ -741,7 +1256,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>에반/Lv.251</t>
+          <t>Lv.251</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -753,7 +1288,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>나이트로드/Lv.251</t>
+          <t>Lv.251</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -765,7 +1320,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>아란/Lv.251</t>
+          <t>Lv.251</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>아란</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -777,7 +1352,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>일리움/Lv.251</t>
+          <t>Lv.251</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>일리움</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -789,7 +1384,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>캐논마스터/Lv.251</t>
+          <t>Lv.251</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -801,7 +1416,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>루미너스/Lv.251</t>
+          <t>Lv.251</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>루미너스</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -813,7 +1448,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>팬텀/Lv.251</t>
+          <t>Lv.251</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -825,7 +1480,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)/Lv.250</t>
+          <t>Lv.250</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>아크메이지(불,독)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -837,7 +1512,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>배틀메이지/Lv.250</t>
+          <t>Lv.250</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>배틀메이지</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -849,7 +1544,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>나이트로드/Lv.250</t>
+          <t>Lv.250</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2020년  11월 8일</t>
         </is>
       </c>
     </row>
@@ -861,7 +1576,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>루미너스/Lv.250</t>
+          <t>Lv.250</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>루미너스</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
@@ -873,7 +1608,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>팬텀/Lv.250</t>
+          <t>Lv.250</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -885,7 +1640,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>소울마스터/Lv.250</t>
+          <t>Lv.250</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
@@ -897,7 +1672,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>비숍/Lv.250</t>
+          <t>Lv.250</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -909,7 +1704,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)/Lv.250</t>
+          <t>Lv.250</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>아크메이지(썬,콜)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -921,7 +1736,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.249</t>
+          <t>Lv.249</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -933,7 +1768,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>아델/Lv.249</t>
+          <t>Lv.249</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -945,7 +1800,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>아델/Lv.249</t>
+          <t>Lv.249</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -957,7 +1832,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>미하일/Lv.247</t>
+          <t>Lv.247</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>미하일</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -969,7 +1864,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>에반/Lv.247</t>
+          <t>Lv.247</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
@@ -981,7 +1896,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.247</t>
+          <t>Lv.247</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021년  2월 22일</t>
         </is>
       </c>
     </row>
@@ -993,7 +1928,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.247</t>
+          <t>Lv.247</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2020년  11월 29일</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1960,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>아델/Lv.246</t>
+          <t>Lv.246</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2020년  12월 6일</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1992,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>아델/Lv.246</t>
+          <t>Lv.246</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
@@ -1029,7 +2024,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>다크나이트/Lv.246</t>
+          <t>Lv.246</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>다크나이트</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
@@ -1041,7 +2056,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>히어로/Lv.246</t>
+          <t>Lv.246</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1053,7 +2088,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>섀도어/Lv.246</t>
+          <t>Lv.246</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1065,7 +2120,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>키네시스/Lv.246</t>
+          <t>Lv.246</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>키네시스</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
@@ -1077,7 +2152,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)/Lv.246</t>
+          <t>Lv.246</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>아크메이지(썬,콜)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1089,7 +2184,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>비숍/Lv.246</t>
+          <t>Lv.246</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
@@ -1101,7 +2216,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>아델/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1113,7 +2248,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>아크/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1125,7 +2280,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>섀도어/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -1137,7 +2312,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>아란/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>아란</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1149,7 +2344,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>윈드브레이커/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1161,7 +2376,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>섀도어/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1173,7 +2408,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>카이저/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>카이저</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1185,7 +2440,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>팬텀/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021년  2월 22일</t>
         </is>
       </c>
     </row>
@@ -1197,7 +2472,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>팬텀/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -1209,7 +2504,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>비숍/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -1221,7 +2536,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>소울마스터/Lv.245</t>
+          <t>Lv.245</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2020년  12월 6일</t>
         </is>
       </c>
     </row>
@@ -1233,7 +2568,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>아델/Lv.244</t>
+          <t>Lv.244</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1245,7 +2600,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>엔젤릭버스터/Lv.244</t>
+          <t>Lv.244</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
@@ -1257,7 +2632,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.244</t>
+          <t>Lv.244</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -1269,7 +2664,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>메르세데스/Lv.244</t>
+          <t>Lv.244</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>메르세데스</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -1281,7 +2696,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>소울마스터/Lv.244</t>
+          <t>Lv.244</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2019년  12월 22일</t>
         </is>
       </c>
     </row>
@@ -1293,7 +2728,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.243</t>
+          <t>Lv.243</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
@@ -1305,7 +2760,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>메르세데스/Lv.243</t>
+          <t>Lv.243</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>메르세데스</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2020년  11월 1일</t>
         </is>
       </c>
     </row>
@@ -1317,7 +2792,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.243</t>
+          <t>Lv.243</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1329,7 +2824,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>엔젤릭버스터/Lv.243</t>
+          <t>Lv.243</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -1341,7 +2856,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>아델/Lv.243</t>
+          <t>Lv.243</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1353,7 +2888,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.243</t>
+          <t>Lv.243</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2019년  12월 15일</t>
         </is>
       </c>
     </row>
@@ -1365,7 +2920,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>캐논마스터/Lv.242</t>
+          <t>Lv.242</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
@@ -1377,7 +2952,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>윈드브레이커/Lv.242</t>
+          <t>Lv.242</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2020년  8월 30일</t>
         </is>
       </c>
     </row>
@@ -1389,7 +2984,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>소울마스터/Lv.242</t>
+          <t>Lv.242</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
@@ -1401,7 +3016,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>나이트로드/Lv.241</t>
+          <t>Lv.241</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
@@ -1413,7 +3048,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>키네시스/Lv.241</t>
+          <t>Lv.241</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>키네시스</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
@@ -1425,7 +3080,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>나이트로드/Lv.241</t>
+          <t>Lv.241</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1437,7 +3112,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)/Lv.241</t>
+          <t>Lv.241</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>아크메이지(썬,콜)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -1449,7 +3144,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>엔젤릭버스터/Lv.241</t>
+          <t>Lv.241</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
@@ -1461,7 +3176,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>캐논마스터/Lv.241</t>
+          <t>Lv.241</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1473,7 +3208,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>윈드브레이커/Lv.241</t>
+          <t>Lv.241</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1485,7 +3240,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.241</t>
+          <t>Lv.241</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1497,7 +3272,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>카데나/Lv.240</t>
+          <t>Lv.240</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>카데나</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1509,7 +3304,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>제논/Lv.240</t>
+          <t>Lv.240</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>제논</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
@@ -1521,7 +3336,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>다크나이트/Lv.240</t>
+          <t>Lv.240</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>다크나이트</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
@@ -1533,7 +3368,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>아델/Lv.240</t>
+          <t>Lv.240</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1545,7 +3400,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>캐논마스터/Lv.240</t>
+          <t>Lv.240</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
@@ -1557,7 +3432,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>아크/Lv.240</t>
+          <t>Lv.240</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1569,7 +3464,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.240</t>
+          <t>Lv.240</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
@@ -1581,7 +3496,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>호영/Lv.240</t>
+          <t>Lv.240</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2020년  5월 24일</t>
         </is>
       </c>
     </row>
@@ -1593,7 +3528,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>키네시스/Lv.239</t>
+          <t>Lv.239</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>키네시스</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1605,7 +3560,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>소울마스터/Lv.239</t>
+          <t>Lv.239</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
@@ -1617,7 +3592,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>아델/Lv.239</t>
+          <t>Lv.239</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -1629,7 +3624,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.239</t>
+          <t>Lv.239</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -1641,7 +3656,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>에반/Lv.238</t>
+          <t>Lv.238</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1653,7 +3688,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>엔젤릭버스터/Lv.238</t>
+          <t>Lv.238</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
@@ -1665,7 +3720,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)/Lv.238</t>
+          <t>Lv.238</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>아크메이지(불,독)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1677,7 +3752,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>아크/Lv.237</t>
+          <t>Lv.237</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
@@ -1689,7 +3784,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>스트라이커/Lv.237</t>
+          <t>Lv.237</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>스트라이커</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1701,7 +3816,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>아크/Lv.237</t>
+          <t>Lv.237</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1713,7 +3848,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>은월/Lv.237</t>
+          <t>Lv.237</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>은월</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1725,7 +3880,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>나이트로드/Lv.236</t>
+          <t>Lv.236</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1737,7 +3912,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.236</t>
+          <t>Lv.236</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1749,7 +3944,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>에반/Lv.236</t>
+          <t>Lv.236</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2020년  7월 19일</t>
         </is>
       </c>
     </row>
@@ -1761,7 +3976,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.236</t>
+          <t>Lv.236</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
@@ -1773,7 +4008,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>은월/Lv.236</t>
+          <t>Lv.236</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>은월</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -1785,7 +4040,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>아델/Lv.236</t>
+          <t>Lv.236</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -1797,7 +4072,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>섀도어/Lv.236</t>
+          <t>Lv.236</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1809,7 +4104,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>호영/Lv.236</t>
+          <t>Lv.236</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -1821,7 +4136,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.235</t>
+          <t>Lv.235</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1833,7 +4168,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.235</t>
+          <t>Lv.235</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1845,7 +4200,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>아크/Lv.235</t>
+          <t>Lv.235</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1857,7 +4232,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.235</t>
+          <t>Lv.235</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
@@ -1869,7 +4264,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>아델/Lv.235</t>
+          <t>Lv.235</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -1881,7 +4296,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>윈드브레이커/Lv.235</t>
+          <t>Lv.235</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
@@ -1893,7 +4328,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>호영/Lv.234</t>
+          <t>Lv.234</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
@@ -1905,7 +4360,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>비숍/Lv.234</t>
+          <t>Lv.234</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -1917,7 +4392,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>호영/Lv.234</t>
+          <t>Lv.234</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1929,7 +4424,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>팔라딘/Lv.233</t>
+          <t>Lv.233</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>팔라딘</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -1941,7 +4456,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>윈드브레이커/Lv.233</t>
+          <t>Lv.233</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
@@ -1953,7 +4488,27 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>메카닉/Lv.233</t>
+          <t>Lv.233</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>메카닉</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -1965,7 +4520,27 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>히어로/Lv.233</t>
+          <t>Lv.233</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
@@ -1977,7 +4552,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.233</t>
+          <t>Lv.233</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
@@ -1989,7 +4584,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>나이트로드/Lv.233</t>
+          <t>Lv.233</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
@@ -2001,7 +4616,27 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>캐논마스터/Lv.232</t>
+          <t>Lv.232</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -2013,7 +4648,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>소울마스터/Lv.232</t>
+          <t>Lv.232</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -2025,7 +4680,27 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>아델/Lv.232</t>
+          <t>Lv.232</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2020년  10월 4일</t>
         </is>
       </c>
     </row>
@@ -2037,7 +4712,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.232</t>
+          <t>Lv.232</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -2049,7 +4744,27 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>아델/Lv.232</t>
+          <t>Lv.232</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -2061,7 +4776,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>나이트워커/Lv.232</t>
+          <t>Lv.232</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>나이트워커</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
@@ -2073,7 +4808,27 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>루미너스/Lv.232</t>
+          <t>Lv.232</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>루미너스</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
@@ -2085,7 +4840,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.232</t>
+          <t>Lv.232</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -2097,7 +4872,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>소울마스터/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
@@ -2109,7 +4904,27 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>신궁/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>신궁</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
@@ -2121,7 +4936,27 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
@@ -2133,7 +4968,27 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>비숍/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2145,7 +5000,27 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>섀도어/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -2157,7 +5032,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2169,7 +5064,27 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>비숍/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
@@ -2181,7 +5096,27 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>아크메이지(썬,콜)</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
@@ -2193,7 +5128,27 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>아델/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2020년  6월 14일</t>
         </is>
       </c>
     </row>
@@ -2205,7 +5160,27 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>루미너스/Lv.231</t>
+          <t>Lv.231</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>루미너스</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2018년  6월 24일</t>
         </is>
       </c>
     </row>
@@ -2217,7 +5192,27 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>히어로/Lv.230</t>
+          <t>Lv.230</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -2229,7 +5224,27 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>섀도어/Lv.230</t>
+          <t>Lv.230</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2241,7 +5256,27 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>아델/Lv.230</t>
+          <t>Lv.230</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2253,7 +5288,27 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.230</t>
+          <t>Lv.230</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -2265,7 +5320,27 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>나이트로드/Lv.230</t>
+          <t>Lv.230</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -2277,7 +5352,27 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>아델/Lv.229</t>
+          <t>Lv.229</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2020년  9월 13일</t>
         </is>
       </c>
     </row>
@@ -2289,7 +5384,27 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>배틀메이지/Lv.229</t>
+          <t>Lv.229</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>배틀메이지</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -2301,7 +5416,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.228</t>
+          <t>Lv.228</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -2313,7 +5448,27 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>아델/Lv.226</t>
+          <t>Lv.226</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
@@ -2325,7 +5480,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>아델/Lv.225</t>
+          <t>Lv.225</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -2337,7 +5512,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.225</t>
+          <t>Lv.225</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2349,7 +5544,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>아델/Lv.225</t>
+          <t>Lv.225</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -2361,7 +5576,27 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>데몬어벤져/Lv.224</t>
+          <t>Lv.224</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>데몬어벤져</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2373,7 +5608,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>아델/Lv.224</t>
+          <t>Lv.224</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2385,7 +5640,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>아델/Lv.224</t>
+          <t>Lv.224</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2397,7 +5672,27 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>엔젤릭버스터/Lv.223</t>
+          <t>Lv.223</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -2409,7 +5704,27 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>히어로/Lv.223</t>
+          <t>Lv.223</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2018년  7월 29일</t>
         </is>
       </c>
     </row>
@@ -2421,7 +5736,27 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>히어로/Lv.222</t>
+          <t>Lv.222</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2433,7 +5768,27 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>아델/Lv.222</t>
+          <t>Lv.222</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -2445,7 +5800,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>신궁/Lv.222</t>
+          <t>Lv.222</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>신궁</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2457,7 +5832,27 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.222</t>
+          <t>Lv.222</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2469,7 +5864,27 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>패스파인더/Lv.221</t>
+          <t>Lv.221</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
@@ -2481,7 +5896,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>비숍/Lv.221</t>
+          <t>Lv.221</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2493,7 +5928,27 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>카데나/Lv.221</t>
+          <t>Lv.221</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>카데나</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -2505,7 +5960,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.221</t>
+          <t>Lv.221</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -2517,7 +5992,27 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>아델/Lv.221</t>
+          <t>Lv.221</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2529,7 +6024,27 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>데몬어벤져/Lv.220</t>
+          <t>Lv.220</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>데몬어벤져</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2019년  11월 3일</t>
         </is>
       </c>
     </row>
@@ -2541,7 +6056,27 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>아델/Lv.220</t>
+          <t>Lv.220</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2020년  2월 9일</t>
         </is>
       </c>
     </row>
@@ -2553,7 +6088,27 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>히어로/Lv.220</t>
+          <t>Lv.220</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2565,7 +6120,27 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>미하일/Lv.220</t>
+          <t>Lv.220</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>미하일</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2577,7 +6152,27 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>듀얼블레이더/Lv.218</t>
+          <t>Lv.218</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2589,7 +6184,27 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>제로/Lv.218</t>
+          <t>Lv.218</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>제로</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2601,7 +6216,27 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>팔라딘/Lv.218</t>
+          <t>Lv.218</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>팔라딘</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2019년  10월 20일</t>
         </is>
       </c>
     </row>
@@ -2613,7 +6248,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>히어로/Lv.218</t>
+          <t>Lv.218</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2625,7 +6280,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>카이저/Lv.217</t>
+          <t>Lv.217</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>카이저</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2637,7 +6312,27 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>플레임위자드/Lv.210</t>
+          <t>Lv.210</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>플레임위자드</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2649,7 +6344,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>나이트로드/Lv.208</t>
+          <t>Lv.208</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -429,20 +429,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>직업/레벨</t>
+          <t>레벨</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>무릉 최고 층수</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>최근 무릉 기록</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>최근 무릉 기록 일자</t>
         </is>
@@ -456,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lv.243</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,7 +493,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lv.258</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +525,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lv.258</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +557,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lv.256</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +589,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lv.251</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +621,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lv.249</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,7 +685,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lv.241</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -712,7 +717,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lv.232</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,7 +749,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lv.274</t>
+          <t>274</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -776,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lv.272</t>
+          <t>272</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -808,7 +813,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lv.267</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -840,7 +845,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lv.261</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -872,7 +877,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lv.260</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -904,7 +909,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lv.260</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -936,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lv.258</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -968,7 +973,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lv.257</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1000,7 +1005,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lv.254</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1032,7 +1037,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lv.254</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1064,7 +1069,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lv.253</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1096,7 +1101,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lv.253</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1128,7 +1133,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lv.252</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1160,7 +1165,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lv.252</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1192,7 +1197,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lv.252</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1224,7 +1229,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lv.252</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1256,7 +1261,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lv.251</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1288,7 +1293,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lv.251</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1320,7 +1325,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lv.251</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1352,7 +1357,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lv.251</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1384,7 +1389,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lv.251</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1416,7 +1421,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lv.251</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1448,7 +1453,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lv.251</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1480,7 +1485,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lv.250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1512,7 +1517,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lv.250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1544,7 +1549,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Lv.250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1576,7 +1581,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lv.250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1608,7 +1613,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lv.250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1640,7 +1645,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lv.250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1672,7 +1677,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lv.250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1704,7 +1709,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lv.250</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1736,7 +1741,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lv.249</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1768,7 +1773,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lv.249</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1800,7 +1805,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lv.249</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1832,7 +1837,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lv.247</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1864,7 +1869,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lv.247</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1896,7 +1901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lv.247</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1928,7 +1933,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lv.247</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1960,7 +1965,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lv.246</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1992,7 +1997,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lv.246</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2024,7 +2029,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lv.246</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2056,7 +2061,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lv.246</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2088,7 +2093,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lv.246</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2120,7 +2125,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Lv.246</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2152,7 +2157,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lv.246</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2184,7 +2189,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lv.246</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2216,7 +2221,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2248,7 +2253,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2280,7 +2285,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2312,7 +2317,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2344,7 +2349,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2376,7 +2381,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2408,7 +2413,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2440,7 +2445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2472,7 +2477,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2504,7 +2509,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2536,7 +2541,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lv.245</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2568,7 +2573,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Lv.244</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2600,7 +2605,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lv.244</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2632,7 +2637,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lv.244</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2664,7 +2669,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lv.244</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2696,7 +2701,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lv.244</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2728,7 +2733,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Lv.243</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2760,7 +2765,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lv.243</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2792,7 +2797,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lv.243</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2824,7 +2829,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Lv.243</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2856,7 +2861,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lv.243</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2888,7 +2893,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lv.243</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2920,7 +2925,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lv.242</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2952,7 +2957,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Lv.242</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2984,7 +2989,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lv.242</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3016,7 +3021,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lv.241</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3048,7 +3053,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Lv.241</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3080,7 +3085,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lv.241</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3112,7 +3117,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lv.241</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3144,7 +3149,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lv.241</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3176,7 +3181,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lv.241</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3208,7 +3213,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lv.241</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3240,7 +3245,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lv.241</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3272,7 +3277,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lv.240</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3304,7 +3309,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lv.240</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3336,7 +3341,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Lv.240</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3368,7 +3373,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lv.240</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3400,7 +3405,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Lv.240</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3432,7 +3437,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Lv.240</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3464,7 +3469,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lv.240</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3496,7 +3501,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lv.240</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3528,7 +3533,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Lv.239</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3560,7 +3565,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lv.239</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3592,7 +3597,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lv.239</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3624,7 +3629,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Lv.239</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3656,7 +3661,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Lv.238</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3688,7 +3693,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Lv.238</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3720,7 +3725,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lv.238</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3752,7 +3757,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Lv.237</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3784,7 +3789,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lv.237</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3816,7 +3821,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lv.237</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3848,7 +3853,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lv.237</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3880,7 +3885,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lv.236</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3912,7 +3917,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lv.236</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3944,7 +3949,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lv.236</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3976,7 +3981,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lv.236</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4008,7 +4013,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Lv.236</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4040,7 +4045,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lv.236</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4072,7 +4077,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lv.236</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4104,7 +4109,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lv.236</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4136,7 +4141,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lv.235</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4168,7 +4173,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lv.235</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4200,7 +4205,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lv.235</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4232,7 +4237,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lv.235</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4264,7 +4269,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lv.235</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4296,7 +4301,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lv.235</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4328,7 +4333,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Lv.234</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4360,7 +4365,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lv.234</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4392,7 +4397,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lv.234</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4424,7 +4429,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lv.233</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4456,7 +4461,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lv.233</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4488,7 +4493,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lv.233</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4520,7 +4525,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lv.233</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4552,7 +4557,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lv.233</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4584,7 +4589,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lv.233</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4616,7 +4621,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lv.232</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4648,7 +4653,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lv.232</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4680,7 +4685,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lv.232</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4712,7 +4717,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lv.232</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4744,7 +4749,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lv.232</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4776,7 +4781,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lv.232</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4808,7 +4813,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lv.232</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4840,7 +4845,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lv.232</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4872,7 +4877,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4904,7 +4909,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4936,7 +4941,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4968,7 +4973,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5000,7 +5005,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5032,7 +5037,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5064,7 +5069,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5096,7 +5101,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5128,7 +5133,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5160,7 +5165,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lv.231</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5192,7 +5197,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Lv.230</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5224,7 +5229,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Lv.230</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5256,7 +5261,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Lv.230</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5288,7 +5293,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lv.230</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5320,7 +5325,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Lv.230</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5352,7 +5357,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Lv.229</t>
+          <t>229</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5384,7 +5389,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Lv.229</t>
+          <t>229</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5416,7 +5421,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Lv.228</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5448,7 +5453,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Lv.226</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5480,7 +5485,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Lv.225</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5512,7 +5517,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Lv.225</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5544,7 +5549,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lv.225</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5576,7 +5581,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lv.224</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5608,7 +5613,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Lv.224</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5640,7 +5645,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lv.224</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5672,7 +5677,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Lv.223</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5704,7 +5709,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Lv.223</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5736,7 +5741,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lv.222</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5768,7 +5773,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Lv.222</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5800,7 +5805,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Lv.222</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5832,7 +5837,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lv.222</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5864,7 +5869,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Lv.221</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5896,7 +5901,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Lv.221</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5928,7 +5933,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Lv.221</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5960,7 +5965,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Lv.221</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5992,7 +5997,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Lv.221</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6024,7 +6029,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lv.220</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6056,7 +6061,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Lv.220</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6088,7 +6093,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Lv.220</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6120,7 +6125,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Lv.220</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6152,7 +6157,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Lv.218</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6184,7 +6189,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Lv.218</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6216,7 +6221,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lv.218</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6248,7 +6253,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Lv.218</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6280,7 +6285,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Lv.217</t>
+          <t>217</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6312,7 +6317,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Lv.210</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6344,7 +6349,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lv.208</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,7 +872,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>놀토카퓨</t>
+          <t>탑클</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>탑클</t>
+          <t>놀토카퓨</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -914,17 +914,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>구칠이년</t>
+          <t>동녘동옥돌민</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1074,29 +1074,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>동녘동옥돌민</t>
+          <t>구칠이년</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021년  2월 22일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
@@ -1256,32 +1256,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>뉴둥</t>
+          <t>또속니친구야</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>또속니친구야</t>
+          <t>랄로님이다</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1426,17 +1426,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>랄로님이다</t>
+          <t>뉴둥</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1458,22 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>쿠무스</t>
+          <t>관악구자취러</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1746,17 +1746,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>한선생</t>
+          <t>쿠무스</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1778,29 +1778,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>관악구자취러</t>
+          <t>한선생</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021년  2월 22일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>박이초</t>
+          <t>마약굴국밥</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2066,22 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>앨로디</t>
+          <t>물밤</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2130,29 +2130,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>마약굴국밥</t>
+          <t>앨로디</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2162,29 +2162,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>물밤</t>
+          <t>박이초</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2194,22 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>현셔는연수꺼</t>
+          <t>애르니로</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2322,29 +2322,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>애르니로</t>
+          <t>현셔는연수꺼</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2354,22 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -2465,14 +2465,14 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021년  2월 22일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>비단니트</t>
+          <t>그남자는안돼</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2482,29 +2482,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>그남자는안돼</t>
+          <t>비단니트</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2514,22 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>김콧치냥</t>
+          <t>도챙</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2578,29 +2578,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>스라맘</t>
+          <t>김콧치냥</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2610,29 +2610,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>반의반숙계란</t>
+          <t>스라맘</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2642,29 +2642,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>relize</t>
+          <t>왕눈이에깅</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2674,29 +2674,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2019년  12월 22일</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>왕눈이에깅</t>
+          <t>반의반숙계란</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2706,54 +2706,54 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2019년  12월 22일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>여캐나능</t>
+          <t>relize</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>숄볼</t>
+          <t>여캐나능</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2807,24 +2807,24 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>도챙</t>
+          <t>윤머현</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2834,22 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2019년  12월 15일</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>윤머현</t>
+          <t>숄볼</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2898,22 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2019년  12월 15일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>상심</t>
+          <t>레드벨벳주현</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3026,29 +3026,29 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>주뎅키네시스</t>
+          <t>삠윤</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3058,29 +3058,29 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>묘이미나로</t>
+          <t>숫엔뀨</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3105,14 +3105,14 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>레드벨벳주현</t>
+          <t>네라고해</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3122,29 +3122,29 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>숫엔뀨</t>
+          <t>시끌벅적듀블</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3169,14 +3169,14 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>네라고해</t>
+          <t>묘이미나로</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>삠윤</t>
+          <t>주뎅키네시스</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3218,29 +3218,29 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>시끌벅적듀블</t>
+          <t>상심</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3250,29 +3250,29 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>체인맞고심리</t>
+          <t>채희냥</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3282,29 +3282,29 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>카데나</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>달빛질녘</t>
+          <t>비뉴방울oO</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3314,29 +3314,29 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>제논</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>깜둥이창지기</t>
+          <t>찐찐우</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>다크나이트</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3361,14 +3361,14 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>오전이래요</t>
+          <t>달빛질녘</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3378,29 +3378,29 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>제논</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>소년선장</t>
+          <t>깜둥이창지기</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3410,29 +3410,29 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>다크나이트</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>벨러론드</t>
+          <t>오전이래요</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3442,17 +3442,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3464,7 +3464,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>루나어린이</t>
+          <t>소년선장</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3474,22 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
@@ -3528,103 +3528,103 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>채희냥</t>
+          <t>벨러론드</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>avoidnuff</t>
+          <t>루나어린이</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>비뉴방울oO</t>
+          <t>체인맞고심리</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>카데나</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bozy</t>
+          <t>avoidnuff</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3634,61 +3634,61 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>tlfh</t>
+          <t>Bozy</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>뽕짝스타</t>
+          <t>옐로a</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3708,19 +3708,19 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>옐로a</t>
+          <t>뽕짝스타</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3740,44 +3740,44 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>아크아쿠마</t>
+          <t>tlfh</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>시비르</t>
+          <t>아크아쿠마</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3858,12 +3858,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3873,46 +3873,46 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>조뺘삐</t>
+          <t>시비르</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>represents</t>
+          <t>모범승기</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3922,29 +3922,29 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>어줍</t>
+          <t>띠르루</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3954,29 +3954,29 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2020년  7월 19일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>패파에폴트</t>
+          <t>암호엥</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3986,29 +3986,29 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>분홍은월해요</t>
+          <t>홀윈브</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4033,14 +4033,14 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>내섭그거</t>
+          <t>랄릎</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4050,29 +4050,29 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>랄릎</t>
+          <t>분홍은월해요</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4082,29 +4082,29 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>암호엥</t>
+          <t>조뺘삐</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4114,135 +4114,135 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>유희왕이철민</t>
+          <t>내섭그거</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>홍생강산초</t>
+          <t>패파에폴트</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>띠르루</t>
+          <t>어줍</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  7월 19일</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>조선의박정수</t>
+          <t>represents</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4257,14 +4257,14 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>모범승기</t>
+          <t>조선의박정수</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4274,29 +4274,29 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>홀윈브</t>
+          <t>유희왕이철민</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4306,22 +4306,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4360,39 +4360,39 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Seel</t>
+          <t>홍생강산초</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>포뇨에욤</t>
+          <t>Seel</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4402,61 +4402,61 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>갈마가든</t>
+          <t>포뇨에욤</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>수로거북</t>
+          <t>갈마가든</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4466,29 +4466,29 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>호돼준지</t>
+          <t>수로거북</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4498,29 +4498,29 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>메카닉</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>쏘쏘혀로</t>
+          <t>호돼준지</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4530,29 +4530,29 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>메카닉</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>신속한패파</t>
+          <t>쏘쏘혀로</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4562,22 +4562,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
@@ -4616,39 +4616,39 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>필승코찌</t>
+          <t>신속한패파</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>쁘마유</t>
+          <t>야채소보로</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4658,29 +4658,29 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>나이트워커</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>호돌너구리</t>
+          <t>쁘마유</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4690,29 +4690,29 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2020년  10월 4일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>히릭</t>
+          <t>호돌너구리</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4722,29 +4722,29 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  10월 4일</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>안휘가람</t>
+          <t>섀도구바</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4754,29 +4754,29 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>야채소보로</t>
+          <t>필승코찌</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>나이트워커</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2020년  10월 25일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -4872,17 +4872,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>돼호지준</t>
+          <t>히릭</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4897,46 +4897,46 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>세야낭</t>
+          <t>안휘가람</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>신궁</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>잇긍</t>
+          <t>돼호지준</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4946,29 +4946,29 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>아스먕</t>
+          <t>세야낭</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4978,29 +4978,29 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>신궁</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>섀도구바</t>
+          <t>아스먕</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5010,29 +5010,29 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>구운청경채</t>
+          <t>잇긍</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5042,29 +5042,29 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>김생강산초</t>
+          <t>구운청경채</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5074,29 +5074,29 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>망치네썬콜</t>
+          <t>김생강산초</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5106,29 +5106,29 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>하읏아파</t>
+          <t>망치네썬콜</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5138,29 +5138,29 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2020년  6월 14일</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CapeIIa</t>
+          <t>하읏아파</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5170,61 +5170,61 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2018년  6월 24일</t>
+          <t>2020년  6월 14일</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>꿀범범</t>
+          <t>CapeIIa</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2018년  6월 24일</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>별사탕반디</t>
+          <t>번잔</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5234,29 +5234,29 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>번잔</t>
+          <t>꿀범범</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5266,29 +5266,29 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>뽀짜밍</t>
+          <t>별사탕반디</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5298,29 +5298,29 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>화공과컴공</t>
+          <t>뽀짜밍</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5330,61 +5330,61 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>아델타공항</t>
+          <t>화공과컴공</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2020년  9월 13일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>손야지</t>
+          <t>아델타공항</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5394,98 +5394,98 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  9월 13일</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>분홍분홍해영</t>
+          <t>손야지</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>229</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>원기허벅지살</t>
+          <t>분홍분홍해영</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>셀리핥짝핥짝</t>
+          <t>원기허벅지살</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5505,14 +5505,14 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>노왈</t>
+          <t>아델구름</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5576,17 +5576,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>페라도</t>
+          <t>노왈</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5608,12 +5608,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>너프안됐으면</t>
+          <t>셀리핥짝핥짝</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5623,24 +5623,24 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>아델구름</t>
+          <t>페라도</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5672,32 +5672,32 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>아임쩡어</t>
+          <t>너프안됐으면</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -5736,71 +5736,71 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>어깨빵1호</t>
+          <t>아임쩡어</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>애테크</t>
+          <t>YOLO지유</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>세르니로</t>
+          <t>포숑차차</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5810,29 +5810,29 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>신궁</t>
+          <t>카데나</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>YOLO지유</t>
+          <t>어깨빵1호</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5864,49 +5864,49 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>캡티</t>
+          <t>애테크</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>참새와병아리</t>
+          <t>세르니로</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>신궁</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5928,7 +5928,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>포숑차차</t>
+          <t>모호아델</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5938,22 +5938,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>카데나</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>모호아델</t>
+          <t>참새와병아리</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6024,32 +6024,32 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>휴가다잉</t>
+          <t>캡티</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2019년  11월 3일</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>난진짜히어로</t>
+          <t>전액</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>미하일</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6120,7 +6120,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>전액</t>
+          <t>난진짜히어로</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>미하일</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6152,39 +6152,39 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>삽도적</t>
+          <t>휴가다잉</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2019년  11월 3일</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>계란너겟</t>
+          <t>삽도적</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>제로</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>띠요옹띨</t>
+          <t>계란너겟</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>제로</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6236,19 +6236,19 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2019년  10월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>팔쉭</t>
+          <t>띠요옹띨</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6268,29 +6268,29 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2019년  10월 20일</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>StoneKaiser</t>
+          <t>팔쉭</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6312,17 +6312,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>분노의계란찜</t>
+          <t>StoneKaiser</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>217</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>플레임위자드</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6344,30 +6344,62 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>분노의계란찜</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>플레임위자드</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>수여식</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>208</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>나이트로드</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>2021년  2월 7일</t>
         </is>

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -456,22 +456,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>희철</t>
+          <t>준대</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -481,152 +481,152 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>재수강</t>
+          <t>희철</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>현최</t>
+          <t>더엔도적</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>욕엉</t>
+          <t>민기민괴도</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>뚜안</t>
+          <t>용띨</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>스트라이커</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>경시</t>
+          <t>재수강</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -636,39 +636,39 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>지평선</t>
+          <t>탑클</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -680,91 +680,91 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>신속한에반</t>
+          <t>또속니친구야</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>오재용</t>
+          <t>세졍</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>시니영</t>
+          <t>놀토카퓨</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -776,17 +776,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EnergyBolt</t>
+          <t>현최</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -796,157 +796,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>브리바첸</t>
+          <t>진주콰외구함</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>민기민괴도</t>
+          <t>얼음은각얼음</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>탑클</t>
+          <t>검사직업up</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>놀토카퓨</t>
+          <t>아란접을래</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>검사직업up</t>
+          <t>욕엉</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -956,93 +956,93 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>반화련</t>
+          <t>관악구자취러</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aremene</t>
+          <t>반화련</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>절계</t>
+          <t>봉인된일리움</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>일리움</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1057,189 +1057,189 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>동녘동옥돌민</t>
+          <t>뚜안</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>스트라이커</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>구칠이년</t>
+          <t>쿠무스</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>StoneIdol</t>
+          <t>Aremene</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>짱난잉</t>
+          <t>뻬줘</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>쮸에몬</t>
+          <t>경시</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>더엔도적</t>
+          <t>한선생</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1249,34 +1249,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>또속니친구야</t>
+          <t>절계</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>진주콰외구함</t>
+          <t>랄로님이다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1298,17 +1298,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1320,49 +1320,49 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>아란접을래</t>
+          <t>지평선</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>봉인된일리움</t>
+          <t>킁카츄</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>일리움</t>
+          <t>미하일</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1384,39 +1384,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>뻬줘</t>
+          <t>동녘동옥돌민</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>랄로님이다</t>
+          <t>뉴둥</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1426,34 +1426,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>뉴둥</t>
+          <t>신속한에반</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1463,88 +1463,88 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>쿵지</t>
+          <t>경슥</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>토성씨</t>
+          <t>구칠이년</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>눈산토끼</t>
+          <t>쿵지</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1554,125 +1554,125 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2020년  11월 8일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>셔노</t>
+          <t>오재용</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>준대</t>
+          <t>롱형</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>용띨</t>
+          <t>StoneIdol</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>세졍</t>
+          <t>토성씨</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1682,49 +1682,49 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>얼음은각얼음</t>
+          <t>시니영</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>274</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>59</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1736,59 +1736,59 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>관악구자취러</t>
+          <t>흐재</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  11월 29일</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>쿠무스</t>
+          <t>짱난잉</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1800,108 +1800,108 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>한선생</t>
+          <t>눈산토끼</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  11월 8일</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>킁카츄</t>
+          <t>EnergyBolt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>272</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>미하일</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>경슥</t>
+          <t>기묘한대통령</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2020년  12월 6일</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>롱형</t>
+          <t>쮸에몬</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1911,81 +1911,81 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>흐재</t>
+          <t>셔노</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2020년  11월 29일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>기묘한대통령</t>
+          <t>브리바첸</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2020년  12월 6일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -2024,49 +2024,49 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>은괴</t>
+          <t>간zl승욱</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>다크나이트</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2020년  10월 25일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>마약굴국밥</t>
+          <t>이녁</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2081,34 +2081,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  11월 1일</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>례봬</t>
+          <t>시끌벅적듀블</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2120,7 +2120,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>물밤</t>
+          <t>은괴</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2130,157 +2130,157 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>다크나이트</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>앨로디</t>
+          <t>치즈위토마토</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>박이초</t>
+          <t>여캐나능</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>현수기인</t>
+          <t>묘이미나로</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>흰색난닝구</t>
+          <t>마약굴국밥</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>뮤다양</t>
+          <t>좀있다변경</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2290,98 +2290,98 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>애르니로</t>
+          <t>윤머현</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2019년  12월 15일</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>현셔는연수꺼</t>
+          <t>주뎅키네시스</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>간zl승욱</t>
+          <t>례봬</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2391,24 +2391,24 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>치즈위토마토</t>
+          <t>그남자는안돼</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2418,125 +2418,125 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>좀있다변경</t>
+          <t>데르테디</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>그남자는안돼</t>
+          <t>상심</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>비단니트</t>
+          <t>물밤</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>태양신이될놈</t>
+          <t>비단니트</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2546,130 +2546,130 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2020년  12월 6일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>도챙</t>
+          <t>숄볼</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>김콧치냥</t>
+          <t>채희냥</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>스라맘</t>
+          <t>앨로디</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>왕눈이에깅</t>
+          <t>태양신이될놈</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2679,204 +2679,204 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2019년  12월 22일</t>
+          <t>2020년  12월 6일</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>반의반숙계란</t>
+          <t>졔즈</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>relize</t>
+          <t>비뉴방울oO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>이녁</t>
+          <t>박이초</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2020년  11월 1일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>여캐나능</t>
+          <t>도챙</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>윤머현</t>
+          <t>지원뀨</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2019년  12월 15일</t>
+          <t>2020년  8월 30일</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>데르테디</t>
+          <t>찐찐우</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2888,17 +2888,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>숄볼</t>
+          <t>현수기인</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2913,46 +2913,46 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>졔즈</t>
+          <t>김콧치냥</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>지원뀨</t>
+          <t>포뇨과</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2977,34 +2977,34 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2020년  8월 30일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>포뇨과</t>
+          <t>달빛질녘</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>제논</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3016,71 +3016,71 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>레드벨벳주현</t>
+          <t>흰색난닝구</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>삠윤</t>
+          <t>스라맘</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>숫엔뀨</t>
+          <t>레드벨벳주현</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3090,39 +3090,39 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>네라고해</t>
+          <t>깜둥이창지기</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>다크나이트</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3137,24 +3137,24 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>시끌벅적듀블</t>
+          <t>뮤다양</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3169,46 +3169,46 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>묘이미나로</t>
+          <t>왕눈이에깅</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2019년  12월 22일</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>주뎅키네시스</t>
+          <t>삠윤</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3218,135 +3218,135 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>상심</t>
+          <t>오전이래요</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>채희냥</t>
+          <t>애르니로</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>비뉴방울oO</t>
+          <t>반의반숙계란</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>찐찐우</t>
+          <t>숫엔뀨</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3361,14 +3361,14 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>달빛질녘</t>
+          <t>소년선장</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3378,98 +3378,98 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>제논</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>깜둥이창지기</t>
+          <t>현셔는연수꺼</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>다크나이트</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>오전이래요</t>
+          <t>relize</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>소년선장</t>
+          <t>네라고해</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3479,17 +3479,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -3560,81 +3560,81 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>루나어린이</t>
+          <t>모범승기</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>체인맞고심리</t>
+          <t>쁘마유</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>카데나</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>avoidnuff</t>
+          <t>유희왕이철민</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3649,19 +3649,19 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bozy</t>
+          <t>루나어린이</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3671,130 +3671,130 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>옐로a</t>
+          <t>띠르루</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>뽕짝스타</t>
+          <t>구월동김난로</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>tlfh</t>
+          <t>호돌너구리</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  10월 4일</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>서울대맹구학</t>
+          <t>체인맞고심리</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>스트라이커</t>
+          <t>카데나</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3809,56 +3809,56 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>안래아</t>
+          <t>암호엥</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>아크아쿠마</t>
+          <t>섀도구바</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3873,24 +3873,24 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>시비르</t>
+          <t>홍생강산초</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3900,51 +3900,51 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>모범승기</t>
+          <t>avoidnuff</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>띠르루</t>
+          <t>홀윈브</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3954,39 +3954,39 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>암호엥</t>
+          <t>Seel</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4008,17 +4008,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>홀윈브</t>
+          <t>필승코찌</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4033,46 +4033,46 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>랄릎</t>
+          <t>Bozy</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>분홍은월해요</t>
+          <t>랄릎</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4082,125 +4082,125 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>조뺘삐</t>
+          <t>포뇨에욤</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>내섭그거</t>
+          <t>방구석빛쟁이</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>패파에폴트</t>
+          <t>옐로a</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>어줍</t>
+          <t>분홍은월해요</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4210,103 +4210,103 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2020년  7월 19일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>represents</t>
+          <t>갈마가든</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>조선의박정수</t>
+          <t>뽕짝스타</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>유희왕이철민</t>
+          <t>망치엄마꺼</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4321,174 +4321,174 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>구월동김난로</t>
+          <t>조뺘삐</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>홍생강산초</t>
+          <t>수로거북</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Seel</t>
+          <t>tlfh</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>포뇨에욤</t>
+          <t>내섭그거</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>갈마가든</t>
+          <t>히릭</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>수로거북</t>
+          <t>호돼준지</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4498,125 +4498,125 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>메카닉</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>호돼준지</t>
+          <t>서울대맹구학</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>메카닉</t>
+          <t>스트라이커</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>쏘쏘혀로</t>
+          <t>안휘가람</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>뚜들벤</t>
+          <t>패파에폴트</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>신속한패파</t>
+          <t>쏘쏘혀로</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4626,258 +4626,258 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>야채소보로</t>
+          <t>안래아</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>나이트워커</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2020년  10월 25일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>쁘마유</t>
+          <t>어줍</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  7월 19일</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>호돌너구리</t>
+          <t>돼호지준</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2020년  10월 4일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>섀도구바</t>
+          <t>뚜들벤</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>필승코찌</t>
+          <t>아크아쿠마</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>방구석빛쟁이</t>
+          <t>세야낭</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>신궁</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>망치엄마꺼</t>
+          <t>represents</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>히릭</t>
+          <t>신속한패파</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4887,44 +4887,44 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>안휘가람</t>
+          <t>시비르</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4936,7 +4936,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>돼호지준</t>
+          <t>아스먕</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4946,93 +4946,93 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>세야낭</t>
+          <t>조선의박정수</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>신궁</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>아스먕</t>
+          <t>야채소보로</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>나이트워커</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>잇긍</t>
+          <t>구운청경채</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5042,29 +5042,29 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>구운청경채</t>
+          <t>잇긍</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5074,39 +5074,39 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>김생강산초</t>
+          <t>분홍분홍해영</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5121,46 +5121,46 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>망치네썬콜</t>
+          <t>어깨빵1호</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>하읏아파</t>
+          <t>김생강산초</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5170,39 +5170,39 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2020년  6월 14일</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CapeIIa</t>
+          <t>계란너겟</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>제로</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5212,24 +5212,24 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2018년  6월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>번잔</t>
+          <t>원기허벅지살</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5239,253 +5239,253 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>꿀범범</t>
+          <t>애테크</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>별사탕반디</t>
+          <t>망치네썬콜</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>뽀짜밍</t>
+          <t>띠요옹띨</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2019년  10월 20일</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>화공과컴공</t>
+          <t>아델구름</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>아델타공항</t>
+          <t>세르니로</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>신궁</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2020년  9월 13일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>손야지</t>
+          <t>하읏아파</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  6월 14일</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>분홍분홍해영</t>
+          <t>팔쉭</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>원기허벅지살</t>
+          <t>원차아닝</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5495,29 +5495,29 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>아델구름</t>
+          <t>모호아델</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5544,49 +5544,49 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>원차아닝</t>
+          <t>CapeIIa</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2018년  6월 24일</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>노왈</t>
+          <t>StoneKaiser</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>217</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5608,7 +5608,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>셀리핥짝핥짝</t>
+          <t>노왈</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5618,66 +5618,66 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>페라도</t>
+          <t>윽악을고</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>너프안됐으면</t>
+          <t>번잔</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5687,34 +5687,34 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>도와줘카봇</t>
+          <t>분노의계란찜</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>플레임위자드</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5724,103 +5724,103 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2018년  7월 29일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>아임쩡어</t>
+          <t>참새와병아리</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>YOLO지유</t>
+          <t>셀리핥짝핥짝</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>포숑차차</t>
+          <t>꿀범범</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>카데나</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5832,113 +5832,113 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>어깨빵1호</t>
+          <t>수여식</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>애테크</t>
+          <t>페라도</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>세르니로</t>
+          <t>캡티</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>신궁</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>모호아델</t>
+          <t>별사탕반디</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5960,128 +5960,128 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>윽악을고</t>
+          <t>너프안됐으면</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>참새와병아리</t>
+          <t>뽀짜밍</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>캡티</t>
+          <t>플렉쭈</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2020년  2월 9일</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>플렉쭈</t>
+          <t>도와줘카봇</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2020년  2월 9일</t>
+          <t>2018년  7월 29일</t>
         </is>
       </c>
     </row>
@@ -6120,81 +6120,81 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>난진짜히어로</t>
+          <t>화공과컴공</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>휴가다잉</t>
+          <t>아임쩡어</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2019년  11월 3일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>삽도적</t>
+          <t>난진짜히어로</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6216,49 +6216,49 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>계란너겟</t>
+          <t>아델타공항</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>229</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>제로</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  9월 13일</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>띠요옹띨</t>
+          <t>YOLO지유</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6268,140 +6268,140 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2019년  10월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>팔쉭</t>
+          <t>손야지</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>229</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>StoneKaiser</t>
+          <t>휴가다잉</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2019년  11월 3일</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>분노의계란찜</t>
+          <t>포숑차차</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>플레임위자드</t>
+          <t>카데나</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>수여식</t>
+          <t>삽도적</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -456,49 +456,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>준대</t>
+          <t>희철</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>희철</t>
+          <t>더엔도적</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -513,29 +513,29 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>더엔도적</t>
+          <t>준대</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -584,54 +584,54 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>용띨</t>
+          <t>재수강</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>재수강</t>
+          <t>또속니친구야</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -680,59 +680,59 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>또속니친구야</t>
+          <t>용띨</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>세졍</t>
+          <t>현최</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -776,27 +776,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>현최</t>
+          <t>진주콰외구함</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -808,17 +808,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>진주콰외구함</t>
+          <t>세졍</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -840,49 +840,49 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>얼음은각얼음</t>
+          <t>아란접을래</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>검사직업up</t>
+          <t>욕엉</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -892,71 +892,71 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>아란접을래</t>
+          <t>검사직업up</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>욕엉</t>
+          <t>얼음은각얼음</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -968,123 +968,123 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>관악구자취러</t>
+          <t>봉인된일리움</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>일리움</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>반화련</t>
+          <t>뚜안</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>스트라이커</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>봉인된일리움</t>
+          <t>반화련</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>일리움</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>뚜안</t>
+          <t>관악구자취러</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>스트라이커</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1096,91 +1096,91 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>쿠무스</t>
+          <t>뻬줘</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aremene</t>
+          <t>경시</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>뻬줘</t>
+          <t>Aremene</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>경시</t>
+          <t>쿠무스</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1212,71 +1212,71 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>한선생</t>
+          <t>랄로님이다</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>절계</t>
+          <t>지평선</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1288,27 +1288,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>랄로님이다</t>
+          <t>절계</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1320,49 +1320,49 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>지평선</t>
+          <t>한선생</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>킁카츄</t>
+          <t>뉴둥</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>미하일</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1372,167 +1372,167 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>동녘동옥돌민</t>
+          <t>신속한에반</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>뉴둥</t>
+          <t>동녘동옥돌민</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>신속한에반</t>
+          <t>킁카츄</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>미하일</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>경슥</t>
+          <t>쿵지</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>구칠이년</t>
+          <t>오재용</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1544,12 +1544,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>쿵지</t>
+          <t>구칠이년</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1559,433 +1559,433 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>오재용</t>
+          <t>경슥</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>롱형</t>
+          <t>토성씨</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>StoneIdol</t>
+          <t>시니영</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>274</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>토성씨</t>
+          <t>StoneIdol</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>시니영</t>
+          <t>롱형</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>흐재</t>
+          <t>눈산토끼</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2020년  11월 29일</t>
+          <t>2020년  11월 8일</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>짱난잉</t>
+          <t>EnergyBolt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>272</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>눈산토끼</t>
+          <t>짱난잉</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2020년  11월 8일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EnergyBolt</t>
+          <t>흐재</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2020년  11월 29일</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>기묘한대통령</t>
+          <t>셔노</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2020년  12월 6일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>쮸에몬</t>
+          <t>브리바첸</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>셔노</t>
+          <t>쮸에몬</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>브리바첸</t>
+          <t>기묘한대통령</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  12월 6일</t>
         </is>
       </c>
     </row>
@@ -2760,64 +2760,64 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>박이초</t>
+          <t>도챙</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>도챙</t>
+          <t>박이초</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2888,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>현수기인</t>
+          <t>김콧치냥</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2903,29 +2903,29 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>김콧치냥</t>
+          <t>현수기인</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2935,17 +2935,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -3016,17 +3016,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>흰색난닝구</t>
+          <t>스라맘</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3036,29 +3036,29 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>스라맘</t>
+          <t>흰색난닝구</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -3144,64 +3144,64 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>뮤다양</t>
+          <t>왕눈이에깅</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2019년  12월 22일</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>왕눈이에깅</t>
+          <t>뮤다양</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2019년  12월 22일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -3272,64 +3272,64 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>애르니로</t>
+          <t>반의반숙계란</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>반의반숙계란</t>
+          <t>애르니로</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -3368,17 +3368,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>소년선장</t>
+          <t>relize</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -3432,17 +3432,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>relize</t>
+          <t>소년선장</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3452,12 +3452,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
@@ -3496,32 +3496,32 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RagSeIng</t>
+          <t>모범승기</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2020년  5월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -3560,49 +3560,49 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>모범승기</t>
+          <t>RagSeIng</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  5월 24일</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>쁘마유</t>
+          <t>유희왕이철민</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3617,39 +3617,39 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>유희왕이철민</t>
+          <t>띠르루</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 24일</t>
         </is>
       </c>
     </row>
@@ -3688,32 +3688,32 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>띠르루</t>
+          <t>쁘마유</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -3752,32 +3752,32 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>호돌너구리</t>
+          <t>암호엥</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2020년  10월 4일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -3816,96 +3816,96 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>암호엥</t>
+          <t>호돌너구리</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  10월 4일</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>섀도구바</t>
+          <t>홍생강산초</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>홍생강산초</t>
+          <t>홀윈브</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
@@ -3944,32 +3944,32 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>홀윈브</t>
+          <t>섀도구바</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -4008,32 +4008,32 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>필승코찌</t>
+          <t>랄릎</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -4072,32 +4072,32 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>랄릎</t>
+          <t>필승코찌</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -4136,32 +4136,32 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>방구석빛쟁이</t>
+          <t>분홍은월해요</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -4200,32 +4200,32 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>분홍은월해요</t>
+          <t>방구석빛쟁이</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
@@ -4264,81 +4264,81 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>뽕짝스타</t>
+          <t>조뺘삐</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>망치엄마꺼</t>
+          <t>뽕짝스타</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>조뺘삐</t>
+          <t>망치엄마꺼</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -4392,64 +4392,64 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>tlfh</t>
+          <t>내섭그거</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>내섭그거</t>
+          <t>tlfh</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -4520,96 +4520,96 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>서울대맹구학</t>
+          <t>패파에폴트</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>스트라이커</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>안휘가람</t>
+          <t>서울대맹구학</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>스트라이커</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>패파에폴트</t>
+          <t>안휘가람</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -4648,64 +4648,64 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>안래아</t>
+          <t>어줍</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  7월 19일</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>어줍</t>
+          <t>안래아</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2020년  7월 19일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -4776,96 +4776,96 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>아크아쿠마</t>
+          <t>represents</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>세야낭</t>
+          <t>아크아쿠마</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>신궁</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>represents</t>
+          <t>세야낭</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>신궁</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
@@ -4904,96 +4904,96 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>시비르</t>
+          <t>조선의박정수</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>아스먕</t>
+          <t>시비르</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>조선의박정수</t>
+          <t>아스먕</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -5064,12 +5064,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>잇긍</t>
+          <t>분홍분홍해영</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5079,29 +5079,29 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>분홍분홍해영</t>
+          <t>잇긍</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5111,17 +5111,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
@@ -5736,64 +5736,64 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>참새와병아리</t>
+          <t>셀리핥짝핥짝</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>셀리핥짝핥짝</t>
+          <t>참새와병아리</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -5992,64 +5992,64 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>뽀짜밍</t>
+          <t>플렉쭈</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2020년  2월 9일</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>플렉쭈</t>
+          <t>뽀짜밍</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2020년  2월 9일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -6280,64 +6280,64 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>손야지</t>
+          <t>휴가다잉</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2019년  11월 3일</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>휴가다잉</t>
+          <t>손야지</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>229</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2019년  11월 3일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="길드원 목록" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,88 +429,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>닉네임</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>레벨</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>직업</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>무릉 최고 층수</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>최근 무릉 기록</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>최근 무릉 기록 일자</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>희철</t>
+          <t>닉네임</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>레벨</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>무릉 최고 층수</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>최근 무릉 기록</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>최근 무릉 기록 일자</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>더엔도적</t>
+          <t>쿵지</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -513,162 +496,162 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>준대</t>
+          <t>희철</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>민기민괴도</t>
+          <t>더엔도적</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>재수강</t>
+          <t>민기민괴도</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>또속니친구야</t>
+          <t>준대</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>탑클</t>
+          <t>또속니친구야</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -680,44 +663,44 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>용띨</t>
+          <t>재수강</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>현최</t>
+          <t>탑클</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -727,12 +710,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -744,59 +727,59 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>놀토카퓨</t>
+          <t>용띨</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>진주콰외구함</t>
+          <t>놀토카퓨</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -808,17 +791,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>세졍</t>
+          <t>진주콰외구함</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -840,283 +823,283 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>아란접을래</t>
+          <t>현최</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>욕엉</t>
+          <t>세졍</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>검사직업up</t>
+          <t>아란접을래</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>얼음은각얼음</t>
+          <t>검사직업up</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>봉인된일리움</t>
+          <t>욕엉</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>일리움</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>뚜안</t>
+          <t>얼음은각얼음</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>스트라이커</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>반화련</t>
+          <t>봉인된일리움</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>일리움</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>관악구자취러</t>
+          <t>반화련</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>뻬줘</t>
+          <t>뚜안</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>스트라이커</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1128,7 +1111,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>경시</t>
+          <t>쿠무스</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1138,7 +1121,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1148,29 +1131,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aremene</t>
+          <t>뉴둥</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1185,152 +1168,152 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>쿠무스</t>
+          <t>Aremene</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>랄로님이다</t>
+          <t>경시</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>지평선</t>
+          <t>한선생</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>절계</t>
+          <t>랄로님이다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>한선생</t>
+          <t>절계</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1345,344 +1328,344 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>뉴둥</t>
+          <t>지평선</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>신속한에반</t>
+          <t>롱형</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>동녘동옥돌민</t>
+          <t>뻬줘</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>킁카츄</t>
+          <t>구칠이년</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>미하일</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>쿵지</t>
+          <t>신속한에반</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>오재용</t>
+          <t>킁카츄</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>미하일</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>구칠이년</t>
+          <t>눈산토끼</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  11월 8일</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>경슥</t>
+          <t>동녘동옥돌민</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>토성씨</t>
+          <t>오재용</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>시니영</t>
+          <t>경슥</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>StoneIdol</t>
+          <t>셔노</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1697,258 +1680,258 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>롱형</t>
+          <t>짱난잉</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>눈산토끼</t>
+          <t>시니영</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>275</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>59</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2020년  11월 8일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EnergyBolt</t>
+          <t>기묘한대통령</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>짱난잉</t>
+          <t>토성씨</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>흐재</t>
+          <t>StoneIdol</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2020년  11월 29일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>셔노</t>
+          <t>EnergyBolt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>272</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>브리바첸</t>
+          <t>도챙</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>쮸에몬</t>
+          <t>관악구자취러</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1960,113 +1943,113 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>기묘한대통령</t>
+          <t>쮸에몬</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2020년  12월 6일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>벽을넘은사람</t>
+          <t>브리바첸</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>간zl승욱</t>
+          <t>벽을넘은사람</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>이녁</t>
+          <t>현수기인</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2081,162 +2064,162 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2020년  11월 1일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>시끌벅적듀블</t>
+          <t>윤머현</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2019년  12월 15일</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>은괴</t>
+          <t>묘이미나로</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>다크나이트</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2020년  10월 25일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>치즈위토마토</t>
+          <t>은괴</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>다크나이트</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>여캐나능</t>
+          <t>현셔는연수꺼</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>묘이미나로</t>
+          <t>숄볼</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2248,54 +2231,54 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>마약굴국밥</t>
+          <t>시끌벅적듀블</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>좀있다변경</t>
+          <t>마약굴국밥</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2305,248 +2288,248 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>윤머현</t>
+          <t>애르니로</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2019년  12월 15일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>주뎅키네시스</t>
+          <t>이녁</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2020년  11월 1일</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>례봬</t>
+          <t>주뎅키네시스</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>그남자는안돼</t>
+          <t>박이초</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>데르테디</t>
+          <t>뮤다양</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>상심</t>
+          <t>여캐나능</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>물밤</t>
+          <t>채희냥</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>비단니트</t>
+          <t>앨로디</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2556,243 +2539,243 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>숄볼</t>
+          <t>흰색난닝구</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>채희냥</t>
+          <t>졔즈</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>앨로디</t>
+          <t>비뉴방울oO</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>태양신이될놈</t>
+          <t>물밤</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2020년  12월 6일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>졔즈</t>
+          <t>김콧치냥</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>비뉴방울oO</t>
+          <t>지원뀨</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2020년  8월 30일</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>도챙</t>
+          <t>찐찐우</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>박이초</t>
+          <t>례봬</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2802,17 +2785,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2824,17 +2807,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>지원뀨</t>
+          <t>간zl승욱</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2849,78 +2832,78 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2020년  8월 30일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>찐찐우</t>
+          <t>포뇨과</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>김콧치냥</t>
+          <t>달빛질녘</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>제논</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>현수기인</t>
+          <t>태양신이될놈</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2930,125 +2913,125 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  12월 6일</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>포뇨과</t>
+          <t>relize</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>달빛질녘</t>
+          <t>레드벨벳주현</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>제논</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>스라맘</t>
+          <t>오전이래요</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>흰색난닝구</t>
+          <t>그남자는안돼</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3058,7 +3041,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3068,115 +3051,115 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>레드벨벳주현</t>
+          <t>데르테디</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>깜둥이창지기</t>
+          <t>삠윤</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>다크나이트</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>왕눈이에깅</t>
+          <t>깜둥이창지기</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>다크나이트</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2019년  12월 22일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>뮤다양</t>
+          <t>비단니트</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3186,17 +3169,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3208,103 +3191,103 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>삠윤</t>
+          <t>반의반숙계란</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>오전이래요</t>
+          <t>숫엔뀨</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>반의반숙계란</t>
+          <t>체인맞고심리</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>카데나</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>애르니로</t>
+          <t>좀있다변경</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3314,34 +3297,34 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>숫엔뀨</t>
+          <t>스라맘</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3351,177 +3334,177 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>relize</t>
+          <t>네라고해</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>현셔는연수꺼</t>
+          <t>RagSeIng</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  5월 24일</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>소년선장</t>
+          <t>치즈위토마토</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>네라고해</t>
+          <t>왕눈이에깅</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2019년  12월 22일</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>모범승기</t>
+          <t>상심</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3543,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RagSeIng</t>
+          <t>루나어린이</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3570,194 +3553,194 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2020년  5월 24일</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>유희왕이철민</t>
+          <t>암호엥</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>띠르루</t>
+          <t>홍생강산초</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>루나어린이</t>
+          <t>호돌너구리</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2020년  10월 4일</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>쁘마유</t>
+          <t>소년선장</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>구월동김난로</t>
+          <t>띠르루</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>암호엥</t>
+          <t>포뇨에욤</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3767,162 +3750,162 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>체인맞고심리</t>
+          <t>섀도구바</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>카데나</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>호돌너구리</t>
+          <t>avoidnuff</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2020년  10월 4일</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>홍생강산초</t>
+          <t>홀윈브</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>홀윈브</t>
+          <t>Seel</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>avoidnuff</t>
+          <t>방구석빛쟁이</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3937,162 +3920,162 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>섀도구바</t>
+          <t>Bozy</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Seel</t>
+          <t>랄릎</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>랄릎</t>
+          <t>쏘쏘혀로</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bozy</t>
+          <t>나야상</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>필승코찌</t>
+          <t>서울대맹구학</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>스트라이커</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4104,625 +4087,625 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>포뇨에욤</t>
+          <t>분홍은월해요</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>분홍은월해요</t>
+          <t>히릭</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>옐로a</t>
+          <t>안휘가람</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>방구석빛쟁이</t>
+          <t>뽕짝스타</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>갈마가든</t>
+          <t>패파에폴트</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>조뺘삐</t>
+          <t>신속한패파</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>뽕짝스타</t>
+          <t>필승코찌</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>망치엄마꺼</t>
+          <t>옐로a</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>수로거북</t>
+          <t>내섭그거</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>내섭그거</t>
+          <t>뚜들벤</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>tlfh</t>
+          <t>망치엄마꺼</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>히릭</t>
+          <t>tlfh</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>호돼준지</t>
+          <t>어줍</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>메카닉</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  7월 19일</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>패파에폴트</t>
+          <t>호돼준지</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>메카닉</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>서울대맹구학</t>
+          <t>돼호지준</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>스트라이커</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>안휘가람</t>
+          <t>안래아</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>쏘쏘혀로</t>
+          <t>조뺘삐</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>어줍</t>
+          <t>갈마가든</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2020년  7월 19일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>안래아</t>
+          <t>번잔</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>돼호지준</t>
+          <t>아크아쿠마</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4744,241 +4727,241 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>뚜들벤</t>
+          <t>조선의박정수</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>represents</t>
+          <t>수로거북</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>아크아쿠마</t>
+          <t>잇긍</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>세야낭</t>
+          <t>시비르</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>신궁</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>신속한패파</t>
+          <t>유희왕이철민</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>조선의박정수</t>
+          <t>야채소보로</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>나이트워커</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>시비르</t>
+          <t>세야낭</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>신궁</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>아스먕</t>
+          <t>모범승기</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5000,103 +4983,103 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>야채소보로</t>
+          <t>구월동김난로</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>나이트워커</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2020년  10월 25일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>구운청경채</t>
+          <t>쁘마유</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>분홍분홍해영</t>
+          <t>구운청경채</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>잇긍</t>
+          <t>김생강산초</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5106,22 +5089,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
@@ -5160,39 +5143,39 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>김생강산초</t>
+          <t>노왈</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>계란너겟</t>
+          <t>띠요옹띨</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5202,7 +5185,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>제로</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5212,44 +5195,44 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2019년  10월 20일</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>원기허벅지살</t>
+          <t>망치네썬콜</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
@@ -5288,39 +5271,39 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>망치네썬콜</t>
+          <t>원기허벅지살</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>띠요옹띨</t>
+          <t>팔쉭</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5330,7 +5313,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5340,24 +5323,24 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2019년  10월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>아델구름</t>
+          <t>하읏아파</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5367,17 +5350,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  6월 14일</t>
         </is>
       </c>
     </row>
@@ -5416,12 +5399,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>하읏아파</t>
+          <t>아델구름</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5431,34 +5414,34 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2020년  6월 14일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>팔쉭</t>
+          <t>StoneKaiser</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5480,32 +5463,32 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>원차아닝</t>
+          <t>CapeIIa</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2018년  6월 24일</t>
         </is>
       </c>
     </row>
@@ -5544,17 +5527,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CapeIIa</t>
+          <t>동녘동고를균</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5564,29 +5547,29 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2018년  6월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>StoneKaiser</t>
+          <t>분노의계란찜</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>플레임위자드</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5608,17 +5591,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>노왈</t>
+          <t>아스먕</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5640,7 +5623,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>윽악을고</t>
+          <t>캡티</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5650,34 +5633,34 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>번잔</t>
+          <t>셀리핥짝핥짝</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5687,88 +5670,88 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021년  2월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>분노의계란찜</t>
+          <t>수여식</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>플레임위자드</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>셀리핥짝핥짝</t>
+          <t>별사탕반디</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>참새와병아리</t>
+          <t>윽악을고</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5778,103 +5761,103 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>꿀범범</t>
+          <t>원차아닝</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>수여식</t>
+          <t>꿀범범</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>페라도</t>
+          <t>참새와병아리</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5896,39 +5879,39 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>캡티</t>
+          <t>페라도</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>별사탕반디</t>
+          <t>뽀짜밍</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5938,22 +5921,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
@@ -6024,7 +6007,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>뽀짜밍</t>
+          <t>화공과컴공</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6034,39 +6017,39 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>도와줘카봇</t>
+          <t>YOLO지유</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6076,12 +6059,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2018년  7월 29일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -6120,39 +6103,39 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>화공과컴공</t>
+          <t>아델타공항</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>229</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  9월 13일</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>아임쩡어</t>
+          <t>도와줘카봇</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6162,29 +6145,29 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2018년  7월 29일</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>난진짜히어로</t>
+          <t>휴가다잉</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6194,29 +6177,29 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2019년  11월 3일</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>아델타공항</t>
+          <t>손야지</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6226,29 +6209,29 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2020년  9월 13일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>YOLO지유</t>
+          <t>아임쩡어</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6258,86 +6241,86 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>휴가다잉</t>
+          <t>삽도적</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2019년  11월 3일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>손야지</t>
+          <t>분홍분홍해영</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6332,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6376,7 +6359,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>삽도적</t>
+          <t>계란너겟</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6386,7 +6369,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>제로</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -6437,7 +6437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G574"/>
+  <dimension ref="A1:G760"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
@@ -23259,6 +23259,5958 @@
         </is>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>레벨</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>무릉 최고 층수</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>최근 무릉 기록</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>최근 무릉 기록 일자</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>더엔도적</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>2020년  10월 11일</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>민기민괴도</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>2021년  1월 10일</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>쿵지</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>아크메이지(불,독)</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>희철</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>팔라딘</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>또속니친구야</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>루미너스</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>준대</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>탑클</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>재수강</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>놀토카퓨</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>진주콰외구함</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>용띨</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>2020년  12월 20일</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>현최</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>아란접을래</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>아란</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>검사직업up</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>2020년  12월 20일</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>세졍</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>욕엉</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>봉인된일리움</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>일리움</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>반화련</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>2020년  11월 15일</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>얼음은각얼음</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>아크메이지(썬,콜)</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>뚜안</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>스트라이커</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>뉴둥</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Aremene</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>메르세데스</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>경시</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>쿠무스</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>랄로님이다</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>절계</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>지평선</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>한선생</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>뻬줘</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>구칠이년</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>아크메이지(불,독)</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>신속한에반</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>롱형</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>눈산토끼</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>2020년  11월 8일</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>동녘동옥돌민</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>은월</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>오재용</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>킁카츄</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>미하일</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>셔노</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>루미너스</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>짱난잉</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>아란</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>시니영</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>경슥</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>2020년  11월 15일</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>토성씨</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>배틀메이지</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>StoneIdol</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>EnergyBolt</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>아크메이지(불,독)</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>2020년  9월 6일</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>기묘한대통령</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>관악구자취러</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>쮸에몬</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>브리바첸</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>데몬어벤져</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>도챙</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>벽을넘은사람</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>2021년  1월 10일</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>현수기인</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>윤머현</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>2019년  12월 15일</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>묘이미나로</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>은괴</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>다크나이트</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>2020년  10월 25일</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>현셔는연수꺼</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>아란</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>시끌벅적듀블</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>숄볼</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>마약굴국밥</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>아크메이지(썬,콜)</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>애르니로</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>주뎅키네시스</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>키네시스</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>2020년  9월 6일</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>이녁</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>메르세데스</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>2020년  11월 1일</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>박이초</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>뮤다양</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>채희냥</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>키네시스</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>여캐나능</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>앨로디</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>키네시스</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>2020년  11월 15일</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>흰색난닝구</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>비뉴방울oO</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>졔즈</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>2020년  11월 22일</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>물밤</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>김콧치냥</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>찐찐우</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>지원뀨</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>2020년  8월 30일</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>례봬</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>간zl승욱</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>포뇨과</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>달빛질녘</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>제논</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>태양신이될놈</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>2020년  12월 6일</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>relize</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>메르세데스</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>레드벨벳주현</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>아크메이지(썬,콜)</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>오전이래요</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>그남자는안돼</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>데르테디</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>삠윤</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>깜둥이창지기</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>다크나이트</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>2021년  1월 17일</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>비단니트</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>반의반숙계란</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>숫엔뀨</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>2020년  10월 11일</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>체인맞고심리</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>카데나</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>좀있다변경</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>스라맘</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>2020년  11월 22일</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>네라고해</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>RagSeIng</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>2020년  5월 24일</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>치즈위토마토</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>카이저</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>왕눈이에깅</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>2019년  12월 22일</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>상심</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>2020년  12월 20일</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>벨러론드</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>루나어린이</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>2020년  10월 18일</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>암호엥</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>홍생강산초</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>호돌너구리</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>2020년  10월 4일</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>소년선장</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>2021년  1월 10일</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>띠르루</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>포뇨에욤</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>섀도구바</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>avoidnuff</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>2020년  5월 3일</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>홀윈브</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>2020년  9월 20일</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Seel</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>방구석빛쟁이</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>루미너스</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>2021년  1월 3일</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Bozy</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>랄릎</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>쏘쏘혀로</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>나야상</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>카이저</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>서울대맹구학</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>스트라이커</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>분홍은월해요</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>은월</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>히릭</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>안휘가람</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>뽕짝스타</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>2020년  12월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>패파에폴트</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>2020년  12월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>신속한패파</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>2020년  5월 3일</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>필승코찌</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>옐로a</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>아크메이지(불,독)</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>내섭그거</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>뚜들벤</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>2020년  11월 22일</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>망치엄마꺼</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>tlfh</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>어줍</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>2020년  7월 19일</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>호돼준지</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>메카닉</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>돼호지준</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>안래아</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>조뺘삐</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>갈마가든</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>팔라딘</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>번잔</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>아크아쿠마</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>조선의박정수</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>2020년  9월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>수로거북</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>2020년  12월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>잇긍</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>2020년  9월 6일</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>시비르</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>은월</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>유희왕이철민</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>야채소보로</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>나이트워커</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>2020년  10월 25일</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>세야낭</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>신궁</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>2020년  10월 18일</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>모범승기</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>구월동김난로</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>쁘마유</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>구운청경채</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>김생강산초</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>2021년  1월 3일</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>노왈</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>어깨빵1호</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>띠요옹띨</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>팔라딘</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>2019년  10월 20일</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>망치네썬콜</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>아크메이지(썬,콜)</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>2020년  10월 18일</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>원기허벅지살</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>2020년  9월 20일</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>애테크</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>2021년  1월 24일</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>팔쉭</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>하읏아파</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>2020년  6월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>아델구름</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>세르니로</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>신궁</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>StoneKaiser</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>카이저</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>CapeIIa</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>루미너스</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>2018년  6월 24일</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>동녘동고를균</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>모호아델</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>아스먕</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>분노의계란찜</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>플레임위자드</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>셀리핥짝핥짝</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>캡티</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>2021년  1월 3일</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>별사탕반디</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>수여식</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>원차아닝</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>2021년  2월 27일</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>윽악을고</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>2021년  2월 7일</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>꿀범범</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>페라도</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>데몬어벤져</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>참새와병아리</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>뽀짜밍</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>너프안됐으면</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>플렉쭈</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>2020년  2월 9일</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>화공과컴공</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>YOLO지유</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>전액</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>미하일</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>아델타공항</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>2020년  9월 13일</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>도와줘카봇</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>2018년  7월 29일</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>휴가다잉</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>데몬어벤져</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>2019년  11월 3일</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>손야지</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>배틀메이지</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>아임쩡어</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>2020년  12월 13일</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>삽도적</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>분홍분홍해영</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>2021년  1월 31일</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>포숑차차</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>카데나</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>2021년  2월 14일</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>계란너겟</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>제로</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E201">
     <sortState ref="A2:E201">

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -456,13 +456,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F372"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -499,17 +499,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>쿵지</t>
+          <t>민기민괴도</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -519,12 +519,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
@@ -563,22 +563,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>더엔도적</t>
+          <t>쿵지</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,125 +588,125 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>민기민괴도</t>
+          <t>더엔도적</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>준대</t>
+          <t>탑클</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>재수강</t>
+          <t>준대</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>또속니친구야</t>
+          <t>재수강</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -723,27 +723,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>탑클</t>
+          <t>또속니친구야</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -755,64 +755,64 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>용띨</t>
+          <t>놀토카퓨</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>놀토카퓨</t>
+          <t>용띨</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
@@ -883,32 +883,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>세졍</t>
+          <t>검사직업up</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
@@ -947,32 +947,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>검사직업up</t>
+          <t>세졍</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1011,32 +1011,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>얼음은각얼음</t>
+          <t>반화련</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>반화련</t>
+          <t>얼음은각얼음</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1139,32 +1139,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>쿠무스</t>
+          <t>Aremene</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1203,32 +1203,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aremene</t>
+          <t>쿠무스</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1267,17 +1267,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>한선생</t>
+          <t>절계</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1331,17 +1331,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>절계</t>
+          <t>한선생</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1395,32 +1395,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>롱형</t>
+          <t>구칠이년</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1459,96 +1459,96 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>구칠이년</t>
+          <t>신속한에반</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>신속한에반</t>
+          <t>롱형</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>킁카츄</t>
+          <t>동녘동옥돌민</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>미하일</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -1587,32 +1587,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>동녘동옥돌민</t>
+          <t>킁카츄</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>미하일</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>경슥</t>
+          <t>짱난잉</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1715,17 +1715,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>짱난잉</t>
+          <t>경슥</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
@@ -1779,32 +1779,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>기묘한대통령</t>
+          <t>StoneIdol</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1843,32 +1843,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>StoneIdol</t>
+          <t>기묘한대통령</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1907,91 +1907,91 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>도챙</t>
+          <t>쮸에몬</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>관악구자취러</t>
+          <t>도챙</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>쮸에몬</t>
+          <t>관악구자취러</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2195,64 +2195,64 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>현셔는연수꺼</t>
+          <t>숄볼</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>숄볼</t>
+          <t>현셔는연수꺼</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -2323,64 +2323,64 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>애르니로</t>
+          <t>이녁</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  11월 1일</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>이녁</t>
+          <t>애르니로</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2020년  11월 1일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -2451,17 +2451,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>뮤다양</t>
+          <t>여캐나능</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2476,24 +2476,24 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>여캐나능</t>
+          <t>뮤다양</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -2579,64 +2579,64 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>흰색난닝구</t>
+          <t>졔즈</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>졔즈</t>
+          <t>흰색난닝구</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -2707,64 +2707,64 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>김콧치냥</t>
+          <t>지원뀨</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  8월 30일</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>지원뀨</t>
+          <t>김콧치냥</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2020년  8월 30일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -2835,17 +2835,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>간zl승욱</t>
+          <t>포뇨과</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2860,24 +2860,24 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>포뇨과</t>
+          <t>간zl승욱</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -2963,64 +2963,64 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>relize</t>
+          <t>레드벨벳주현</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>레드벨벳주현</t>
+          <t>relize</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -3091,64 +3091,64 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>데르테디</t>
+          <t>삠윤</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>삠윤</t>
+          <t>데르테디</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -3187,96 +3187,96 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>반의반숙계란</t>
+          <t>비단니트</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>비단니트</t>
+          <t>숫엔뀨</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>숫엔뀨</t>
+          <t>반의반숙계란</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -3315,96 +3315,96 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>스라맘</t>
+          <t>좀있다변경</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>좀있다변경</t>
+          <t>네라고해</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>네라고해</t>
+          <t>스라맘</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
@@ -3443,64 +3443,64 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>왕눈이에깅</t>
+          <t>치즈위토마토</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2019년  12월 22일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>치즈위토마토</t>
+          <t>왕눈이에깅</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2019년  12월 22일</t>
         </is>
       </c>
     </row>
@@ -3571,64 +3571,64 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>암호엥</t>
+          <t>루나어린이</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>루나어린이</t>
+          <t>암호엥</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -3699,64 +3699,64 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>띠르루</t>
+          <t>소년선장</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>소년선장</t>
+          <t>띠르루</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -3827,96 +3827,96 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>홀윈브</t>
+          <t>avoidnuff</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Seel</t>
+          <t>홀윈브</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>avoidnuff</t>
+          <t>Seel</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -3955,96 +3955,96 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>랄릎</t>
+          <t>Bozy</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>쏘쏘혀로</t>
+          <t>랄릎</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bozy</t>
+          <t>쏘쏘혀로</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
@@ -4083,64 +4083,64 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>분홍은월해요</t>
+          <t>서울대맹구학</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>스트라이커</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>서울대맹구학</t>
+          <t>분홍은월해요</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>스트라이커</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -4211,27 +4211,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>패파에폴트</t>
+          <t>뽕짝스타</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4243,27 +4243,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>뽕짝스타</t>
+          <t>패파에폴트</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4339,64 +4339,64 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>내섭그거</t>
+          <t>옐로a</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>옐로a</t>
+          <t>내섭그거</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -4467,12 +4467,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>어줍</t>
+          <t>tlfh</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4482,29 +4482,29 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2020년  7월 19일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>tlfh</t>
+          <t>어줍</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4514,17 +4514,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  7월 19일</t>
         </is>
       </c>
     </row>
@@ -4595,17 +4595,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>조뺘삐</t>
+          <t>안래아</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4659,17 +4659,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>안래아</t>
+          <t>조뺘삐</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4723,91 +4723,91 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>수로거북</t>
+          <t>아크아쿠마</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>조선의박정수</t>
+          <t>수로거북</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>아크아쿠마</t>
+          <t>조선의박정수</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4851,86 +4851,86 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>야채소보로</t>
+          <t>시비르</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>나이트워커</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2020년  10월 25일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>유희왕이철민</t>
+          <t>야채소보로</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>나이트워커</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>시비르</t>
+          <t>유희왕이철민</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4979,49 +4979,49 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>쁘마유</t>
+          <t>모범승기</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>구월동김난로</t>
+          <t>쁘마유</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5036,39 +5036,39 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>모범승기</t>
+          <t>구월동김난로</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -5107,81 +5107,81 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>어깨빵1호</t>
+          <t>김생강산초</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>김생강산초</t>
+          <t>노왈</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>노왈</t>
+          <t>어깨빵1호</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5267,12 +5267,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>애테크</t>
+          <t>원기허벅지살</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5282,29 +5282,29 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>원기허벅지살</t>
+          <t>애테크</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5314,17 +5314,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -5363,64 +5363,64 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>세르니로</t>
+          <t>하읏아파</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>신궁</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  6월 14일</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>하읏아파</t>
+          <t>세르니로</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>신궁</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2020년  6월 14일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -5523,12 +5523,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>모호아델</t>
+          <t>동녘동고를균</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5555,12 +5555,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>동녘동고를균</t>
+          <t>모호아델</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5651,64 +5651,64 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>캡티</t>
+          <t>셀리핥짝핥짝</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>셀리핥짝핥짝</t>
+          <t>캡티</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
@@ -5779,64 +5779,64 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>윽악을고</t>
+          <t>원차아닝</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>원차아닝</t>
+          <t>윽악을고</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -6416,5960 +6416,8 @@
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>닉네임</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>레벨</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>직업</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>무릉 최고 층수</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>최근 무릉 기록</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>최근 무릉 기록 일자</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>민기민괴도</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>2021년  1월 10일</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>더엔도적</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>2020년  10월 11일</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>쿵지</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>희철</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>팔라딘</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>탑클</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>또속니친구야</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>루미너스</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>준대</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>재수강</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>놀토카퓨</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>진주콰외구함</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>용띨</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>2020년  12월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>현최</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>검사직업up</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>2020년  12월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>아란접을래</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>아란</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>세졍</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>욕엉</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>반화련</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>2020년  11월 15일</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>봉인된일리움</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>일리움</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>얼음은각얼음</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>아크메이지(썬,콜)</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>뚜안</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>스트라이커</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Aremene</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>메르세데스</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>뉴둥</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>쿠무스</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>경시</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>절계</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>랄로님이다</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>한선생</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>지평선</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>구칠이년</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>뻬줘</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>롱형</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>신속한에반</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>동녘동옥돌민</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>은월</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>2021년  1월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>눈산토끼</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>2020년  11월 8일</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>킁카츄</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>미하일</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>오재용</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>짱난잉</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>아란</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>셔노</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>루미너스</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>2020년  9월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>경슥</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>2020년  11월 15일</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>시니영</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>StoneIdol</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>토성씨</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>배틀메이지</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>2021년  1월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>기묘한대통령</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>EnergyBolt</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>2020년  9월 6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>쮸에몬</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>관악구자취러</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>도챙</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>브리바첸</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>데몬어벤져</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>벽을넘은사람</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>2021년  1월 10일</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>현수기인</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>윤머현</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>2019년  12월 15일</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>묘이미나로</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>은괴</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>다크나이트</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>2020년  10월 25일</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>현셔는연수꺼</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>아란</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>숄볼</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>시끌벅적듀블</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>마약굴국밥</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>아크메이지(썬,콜)</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>애르니로</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>이녁</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>메르세데스</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>2020년  11월 1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>주뎅키네시스</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>키네시스</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>2020년  9월 6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>박이초</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>뮤다양</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>여캐나능</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>2021년  1월 17일</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>채희냥</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>키네시스</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>앨로디</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>키네시스</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>2020년  11월 15일</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>흰색난닝구</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>졔즈</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>2020년  11월 22일</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>비뉴방울oO</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>물밤</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>2021년  1월 17일</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>김콧치냥</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>지원뀨</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>2020년  8월 30일</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>찐찐우</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>례봬</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>간zl승욱</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>포뇨과</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>2021년  1월 17일</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>달빛질녘</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>제논</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>2021년  1월 17일</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>태양신이될놈</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>2020년  12월 6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>relize</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>메르세데스</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>2021년  1월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>레드벨벳주현</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>아크메이지(썬,콜)</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>오전이래요</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>그남자는안돼</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>2021년  1월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>데르테디</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>삠윤</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>깜둥이창지기</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>다크나이트</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>2021년  1월 17일</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>비단니트</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>반의반숙계란</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>숫엔뀨</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>2020년  10월 11일</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>체인맞고심리</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>카데나</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>좀있다변경</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>스라맘</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>2020년  11월 22일</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>네라고해</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>RagSeIng</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>2020년  5월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>치즈위토마토</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>카이저</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>왕눈이에깅</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>2019년  12월 22일</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>상심</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>2020년  12월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>벨러론드</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>암호엥</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>루나어린이</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>2020년  10월 18일</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>홍생강산초</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>호돌너구리</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>2020년  10월 4일</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>띠르루</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>소년선장</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>2021년  1월 10일</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>포뇨에욤</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>섀도구바</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>홀윈브</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>2020년  9월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Seel</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>avoidnuff</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>2020년  5월 3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>방구석빛쟁이</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>루미너스</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>2021년  1월 3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>랄릎</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>쏘쏘혀로</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>2020년  9월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Bozy</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>나야상</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>카이저</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>분홍은월해요</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>은월</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>히릭</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>2021년  1월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>서울대맹구학</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>스트라이커</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>안휘가람</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>패파에폴트</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>2020년  12월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>신속한패파</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>2020년  5월 3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>뽕짝스타</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>2020년  12월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>필승코찌</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>내섭그거</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>뚜들벤</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>2020년  11월 22일</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>옐로a</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>망치엄마꺼</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>어줍</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>2020년  7월 19일</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>호돼준지</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>메카닉</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>tlfh</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>돼호지준</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>2020년  9월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>조뺘삐</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>갈마가든</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>팔라딘</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>안래아</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>번잔</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>수로거북</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>2020년  12월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>조선의박정수</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>2020년  9월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>아크아쿠마</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>2020년  9월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>잇긍</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>2020년  9월 6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>야채소보로</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>나이트워커</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>2020년  10월 25일</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>유희왕이철민</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>시비르</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>은월</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>세야낭</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>신궁</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>2020년  10월 18일</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>구월동김난로</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>쁘마유</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>모범승기</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>구운청경채</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>어깨빵1호</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>김생강산초</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>2021년  1월 3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>노왈</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>띠요옹띨</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>팔라딘</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>2019년  10월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>망치네썬콜</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>아크메이지(썬,콜)</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>2020년  10월 18일</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>애테크</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>2021년  1월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>원기허벅지살</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>2020년  9월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>팔쉭</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>세르니로</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>신궁</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>하읏아파</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>2020년  6월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>아델구름</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>StoneKaiser</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>카이저</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>모호아델</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>동녘동고를균</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>CapeIIa</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>루미너스</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>2018년  6월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>분노의계란찜</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>플레임위자드</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>아스먕</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>캡티</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>2021년  1월 3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>셀리핥짝핥짝</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>수여식</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>별사탕반디</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>윽악을고</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>원차아닝</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>2021년  2월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>꿀범범</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>참새와병아리</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>페라도</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>데몬어벤져</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>뽀짜밍</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>너프안됐으면</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>플렉쭈</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>2020년  2월 9일</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>화공과컴공</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>YOLO지유</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>전액</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>미하일</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>아델타공항</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>2020년  9월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>도와줘카봇</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>2018년  7월 29일</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>휴가다잉</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>데몬어벤져</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>2019년  11월 3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>손야지</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>배틀메이지</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>아임쩡어</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>삽도적</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>분홍분홍해영</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>포숑차차</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>카데나</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>계란너겟</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>제로</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -499,17 +499,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>쿵지</t>
+          <t>민기민괴도</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -519,34 +519,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>더엔도적</t>
+          <t>쿵지</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -556,29 +556,29 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>민기민괴도</t>
+          <t>희철</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,24 +588,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>희철</t>
+          <t>더엔도적</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,98 +615,98 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>준대</t>
+          <t>탑클</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>탑클</t>
+          <t>준대</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>재수강</t>
+          <t>또속니친구야</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -723,22 +723,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>또속니친구야</t>
+          <t>재수강</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -755,91 +755,91 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>용띨</t>
+          <t>놀토카퓨</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>놀토카퓨</t>
+          <t>용띨</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>현최</t>
+          <t>진주콰외구함</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,27 +851,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>진주콰외구함</t>
+          <t>현최</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -883,96 +883,96 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>세졍</t>
+          <t>검사직업up</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>검사직업up</t>
+          <t>아란접을래</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>아란접을래</t>
+          <t>세졍</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1011,96 +1011,96 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>얼음은각얼음</t>
+          <t>반화련</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>반화련</t>
+          <t>봉인된일리움</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>일리움</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>봉인된일리움</t>
+          <t>얼음은각얼음</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>일리움</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1139,49 +1139,49 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>쿠무스</t>
+          <t>Aremene</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aremene</t>
+          <t>뉴둥</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1196,39 +1196,39 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>뉴둥</t>
+          <t>쿠무스</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1267,17 +1267,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>한선생</t>
+          <t>절계</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1292,71 +1292,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>절계</t>
+          <t>랄로님이다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>랄로님이다</t>
+          <t>한선생</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -1395,96 +1395,96 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>롱형</t>
+          <t>구칠이년</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>구칠이년</t>
+          <t>뻬줘</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>뻬줘</t>
+          <t>롱형</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1523,96 +1523,96 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>킁카츄</t>
+          <t>동녘동옥돌민</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>미하일</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>동녘동옥돌민</t>
+          <t>눈산토끼</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  11월 8일</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>눈산토끼</t>
+          <t>킁카츄</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>미하일</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2020년  11월 8일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>경슥</t>
+          <t>짱난잉</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1671,29 +1671,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>짱난잉</t>
+          <t>셔노</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1703,29 +1703,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>셔노</t>
+          <t>경슥</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
@@ -1779,96 +1779,96 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>기묘한대통령</t>
+          <t>StoneIdol</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>StoneIdol</t>
+          <t>토성씨</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>토성씨</t>
+          <t>기묘한대통령</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1907,64 +1907,64 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>도챙</t>
+          <t>쮸에몬</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>쮸에몬</t>
+          <t>도챙</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2291,64 +2291,64 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>마약굴국밥</t>
+          <t>애르니로</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>애르니로</t>
+          <t>마약굴국밥</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -2419,64 +2419,64 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>박이초</t>
+          <t>뮤다양</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>뮤다양</t>
+          <t>박이초</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -2547,96 +2547,96 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>앨로디</t>
+          <t>흰색난닝구</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>흰색난닝구</t>
+          <t>졔즈</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>졔즈</t>
+          <t>앨로디</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
@@ -2675,64 +2675,64 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>물밤</t>
+          <t>김콧치냥</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>김콧치냥</t>
+          <t>물밤</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
@@ -2803,12 +2803,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>례봬</t>
+          <t>간zl승욱</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2818,34 +2818,34 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>간zl승욱</t>
+          <t>포뇨과</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2860,39 +2860,39 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>포뇨과</t>
+          <t>례봬</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -2931,96 +2931,96 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>태양신이될놈</t>
+          <t>relize</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2020년  12월 6일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>relize</t>
+          <t>레드벨벳주현</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>레드벨벳주현</t>
+          <t>태양신이될놈</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  12월 6일</t>
         </is>
       </c>
     </row>
@@ -3059,64 +3059,64 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>그남자는안돼</t>
+          <t>데르테디</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>데르테디</t>
+          <t>그남자는안돼</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -3187,64 +3187,64 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>비단니트</t>
+          <t>반의반숙계란</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>반의반숙계란</t>
+          <t>비단니트</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -3315,64 +3315,64 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>좀있다변경</t>
+          <t>스라맘</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>스라맘</t>
+          <t>좀있다변경</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -3443,64 +3443,64 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>치즈위토마토</t>
+          <t>왕눈이에깅</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2019년  12월 22일</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>왕눈이에깅</t>
+          <t>치즈위토마토</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2019년  12월 22일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -3859,64 +3859,64 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>avoidnuff</t>
+          <t>홀윈브</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>홀윈브</t>
+          <t>avoidnuff</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
@@ -3955,64 +3955,64 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>랄릎</t>
+          <t>Bozy</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bozy</t>
+          <t>랄릎</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -4211,27 +4211,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>뽕짝스타</t>
+          <t>패파에폴트</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4243,27 +4243,27 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>패파에폴트</t>
+          <t>뽕짝스타</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4883,22 +4883,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>시비르</t>
+          <t>유희왕이철민</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4915,22 +4915,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>유희왕이철민</t>
+          <t>시비르</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5011,64 +5011,64 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>모범승기</t>
+          <t>구월동김난로</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>구월동김난로</t>
+          <t>모범승기</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5267,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>애테크</t>
+          <t>원기허벅지살</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5282,29 +5282,29 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>원기허벅지살</t>
+          <t>애테크</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5314,17 +5314,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -5875,17 +5875,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>참새와병아리</t>
+          <t>페라도</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5907,17 +5907,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>페라도</t>
+          <t>참새와병아리</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5971,12 +5971,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>플렉쭈</t>
+          <t>너프안됐으면</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5986,29 +5986,29 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2020년  2월 9일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>너프안됐으면</t>
+          <t>플렉쭈</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6018,17 +6018,17 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  2월 9일</t>
         </is>
       </c>
     </row>
@@ -6067,17 +6067,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>전액</t>
+          <t>YOLO지유</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>미하일</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6099,17 +6099,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>YOLO지유</t>
+          <t>전액</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>미하일</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6163,64 +6163,64 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>휴가다잉</t>
+          <t>도와줘카봇</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2019년  11월 3일</t>
+          <t>2018년  7월 29일</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>도와줘카봇</t>
+          <t>휴가다잉</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2018년  7월 29일</t>
+          <t>2019년  11월 3일</t>
         </is>
       </c>
     </row>
@@ -6259,64 +6259,64 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>삽도적</t>
+          <t>아임쩡어</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>아임쩡어</t>
+          <t>삽도적</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="길드원 목록" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="수로 참가 인원" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="극딜주기" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="수로 참가 인원" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="수로" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'수로 참가 인원'!$A$1:$E$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수로 참가 인원'!$A$1:$E$201</definedName>
   </definedNames>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0&quot;초&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot;층&quot;"/>
+    <numFmt numFmtId="166" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="맑은 고딕"/>
@@ -44,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -57,8 +63,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC3E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBED7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B184"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -81,14 +117,595 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,17 +1116,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>민기민괴도</t>
+          <t>쿵지</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -519,34 +1136,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>쿵지</t>
+          <t>더엔도적</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -556,56 +1173,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>희철</t>
+          <t>민기민괴도</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>더엔도적</t>
+          <t>희철</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,103 +1232,103 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>탑클</t>
+          <t>준대</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>준대</t>
+          <t>또속니친구야</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>또속니친구야</t>
+          <t>탑클</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -755,64 +1372,64 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>놀토카퓨</t>
+          <t>용띨</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>용띨</t>
+          <t>놀토카퓨</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>260</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -883,32 +1500,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>검사직업up</t>
+          <t>세졍</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -947,32 +1564,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>세졍</t>
+          <t>검사직업up</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
@@ -1011,96 +1628,96 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>반화련</t>
+          <t>봉인된일리움</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>일리움</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>봉인된일리움</t>
+          <t>얼음은각얼음</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>일리움</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>얼음은각얼음</t>
+          <t>반화련</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
@@ -1139,17 +1756,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aremene</t>
+          <t>뉴둥</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1164,24 +1781,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>뉴둥</t>
+          <t>Aremene</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1196,7 +1813,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1267,64 +1884,64 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>절계</t>
+          <t>랄로님이다</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>랄로님이다</t>
+          <t>절계</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1395,192 +2012,192 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>구칠이년</t>
+          <t>뻬줘</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>뻬줘</t>
+          <t>구칠이년</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>롱형</t>
+          <t>신속한에반</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>신속한에반</t>
+          <t>롱형</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>동녘동옥돌민</t>
+          <t>눈산토끼</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  11월 8일</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>눈산토끼</t>
+          <t>동녘동옥돌민</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2020년  11월 8일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -1651,17 +2268,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>짱난잉</t>
+          <t>셔노</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1671,29 +2288,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>셔노</t>
+          <t>짱난잉</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1703,12 +2320,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -1779,64 +2396,64 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>StoneIdol</t>
+          <t>토성씨</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>토성씨</t>
+          <t>StoneIdol</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -1907,27 +2524,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>쮸에몬</t>
+          <t>관악구자취러</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1939,64 +2556,64 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>도챙</t>
+          <t>쮸에몬</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>관악구자취러</t>
+          <t>도챙</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -2291,64 +2908,64 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>애르니로</t>
+          <t>마약굴국밥</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>마약굴국밥</t>
+          <t>애르니로</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -2419,64 +3036,64 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>뮤다양</t>
+          <t>박이초</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>박이초</t>
+          <t>뮤다양</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -2547,96 +3164,96 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>흰색난닝구</t>
+          <t>앨로디</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>졔즈</t>
+          <t>흰색난닝구</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>앨로디</t>
+          <t>졔즈</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
@@ -2675,64 +3292,64 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>김콧치냥</t>
+          <t>물밤</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>물밤</t>
+          <t>김콧치냥</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -2803,12 +3420,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>간zl승욱</t>
+          <t>례봬</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2818,34 +3435,34 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>포뇨과</t>
+          <t>간zl승욱</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2860,39 +3477,39 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>례봬</t>
+          <t>포뇨과</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
@@ -2931,96 +3548,96 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>relize</t>
+          <t>태양신이될놈</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2020년  12월 6일</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>레드벨벳주현</t>
+          <t>relize</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>태양신이될놈</t>
+          <t>레드벨벳주현</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2020년  12월 6일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -3059,64 +3676,64 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>데르테디</t>
+          <t>그남자는안돼</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>그남자는안돼</t>
+          <t>데르테디</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -3187,64 +3804,64 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>반의반숙계란</t>
+          <t>비단니트</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>비단니트</t>
+          <t>반의반숙계란</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -3315,64 +3932,64 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>스라맘</t>
+          <t>좀있다변경</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>좀있다변경</t>
+          <t>스라맘</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  11월 22일</t>
         </is>
       </c>
     </row>
@@ -3443,64 +4060,64 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>왕눈이에깅</t>
+          <t>치즈위토마토</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2019년  12월 22일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>치즈위토마토</t>
+          <t>왕눈이에깅</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2019년  12월 22일</t>
         </is>
       </c>
     </row>
@@ -3571,64 +4188,64 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>암호엥</t>
+          <t>루나어린이</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>루나어린이</t>
+          <t>암호엥</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -3827,96 +4444,96 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Seel</t>
+          <t>avoidnuff</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>홀윈브</t>
+          <t>Seel</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>avoidnuff</t>
+          <t>홀윈브</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
@@ -3987,64 +4604,64 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>랄릎</t>
+          <t>쏘쏘혀로</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>쏘쏘혀로</t>
+          <t>랄릎</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
@@ -4083,64 +4700,64 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>분홍은월해요</t>
+          <t>서울대맹구학</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>스트라이커</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>서울대맹구학</t>
+          <t>분홍은월해요</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>스트라이커</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
@@ -4211,27 +4828,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>패파에폴트</t>
+          <t>뽕짝스타</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4243,44 +4860,44 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>뽕짝스타</t>
+          <t>신속한패파</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>신속한패파</t>
+          <t>패파에폴트</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4290,17 +4907,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
@@ -4339,64 +4956,64 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>내섭그거</t>
+          <t>옐로a</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>옐로a</t>
+          <t>내섭그거</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -4467,12 +5084,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>어줍</t>
+          <t>tlfh</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4482,29 +5099,29 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2020년  7월 19일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>tlfh</t>
+          <t>어줍</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4514,17 +5131,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  7월 19일</t>
         </is>
       </c>
     </row>
@@ -4595,81 +5212,81 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>갈마가든</t>
+          <t>안래아</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>조뺘삐</t>
+          <t>갈마가든</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>안래아</t>
+          <t>조뺘삐</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4723,91 +5340,91 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>수로거북</t>
+          <t>아크아쿠마</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>조선의박정수</t>
+          <t>수로거북</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>아크아쿠마</t>
+          <t>조선의박정수</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4851,86 +5468,86 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>야채소보로</t>
+          <t>시비르</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>나이트워커</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2020년  10월 25일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>유희왕이철민</t>
+          <t>야채소보로</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>나이트워커</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>시비르</t>
+          <t>유희왕이철민</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4979,49 +5596,49 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>쁘마유</t>
+          <t>모범승기</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>구월동김난로</t>
+          <t>쁘마유</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5036,39 +5653,39 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>모범승기</t>
+          <t>구월동김난로</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
@@ -5139,17 +5756,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>어깨빵1호</t>
+          <t>노왈</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5171,17 +5788,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>노왈</t>
+          <t>어깨빵1호</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5427,17 +6044,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>StoneKaiser</t>
+          <t>아델구름</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5459,17 +6076,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>아델구름</t>
+          <t>StoneKaiser</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>217</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>카이저</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5683,64 +6300,64 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>수여식</t>
+          <t>셀리핥짝핥짝</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>셀리핥짝핥짝</t>
+          <t>수여식</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -5779,64 +6396,64 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>윽악을고</t>
+          <t>원차아닝</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 27일</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>원차아닝</t>
+          <t>윽악을고</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
@@ -6355,64 +6972,64 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>계란너겟</t>
+          <t>포숑차차</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>제로</t>
+          <t>카데나</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>포숑차차</t>
+          <t>계란너겟</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>카데나</t>
+          <t>제로</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
@@ -6427,10 +7044,554 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="13" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="inlineStr">
+        <is>
+          <t>모험가</t>
+        </is>
+      </c>
+      <c r="B2" s="28" t="inlineStr">
+        <is>
+          <t>히어로</t>
+        </is>
+      </c>
+      <c r="C2" s="47" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="48" t="n"/>
+      <c r="B3" s="31" t="inlineStr">
+        <is>
+          <t>팔라딘</t>
+        </is>
+      </c>
+      <c r="C3" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="48" t="n"/>
+      <c r="B4" s="31" t="inlineStr">
+        <is>
+          <t>다크나이트</t>
+        </is>
+      </c>
+      <c r="C4" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="48" t="n"/>
+      <c r="B5" s="31" t="inlineStr">
+        <is>
+          <t>보우마스터</t>
+        </is>
+      </c>
+      <c r="C5" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="48" t="n"/>
+      <c r="B6" s="31" t="inlineStr">
+        <is>
+          <t>신궁</t>
+        </is>
+      </c>
+      <c r="C6" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="48" t="n"/>
+      <c r="B7" s="31" t="inlineStr">
+        <is>
+          <t>패스파인더</t>
+        </is>
+      </c>
+      <c r="C7" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="48" t="n"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>아크메이지(썬,콜)</t>
+        </is>
+      </c>
+      <c r="C8" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="48" t="n"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>아크메이지(불,독)</t>
+        </is>
+      </c>
+      <c r="C9" s="49" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="48" t="n"/>
+      <c r="B10" s="31" t="inlineStr">
+        <is>
+          <t>비숍</t>
+        </is>
+      </c>
+      <c r="C10" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="48" t="n"/>
+      <c r="B11" s="31" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="C11" s="49" t="inlineStr">
+        <is>
+          <t>180초</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="48" t="n"/>
+      <c r="B12" s="31" t="inlineStr">
+        <is>
+          <t>섀도어</t>
+        </is>
+      </c>
+      <c r="C12" s="49" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="48" t="n"/>
+      <c r="B13" s="31" t="inlineStr">
+        <is>
+          <t>듀얼블레이더</t>
+        </is>
+      </c>
+      <c r="C13" s="49" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="48" t="n"/>
+      <c r="B14" s="31" t="inlineStr">
+        <is>
+          <t>캡틴</t>
+        </is>
+      </c>
+      <c r="C14" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="48" t="n"/>
+      <c r="B15" s="31" t="inlineStr">
+        <is>
+          <t>바이퍼</t>
+        </is>
+      </c>
+      <c r="C15" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A16" s="50" t="n"/>
+      <c r="B16" s="34" t="inlineStr">
+        <is>
+          <t>캐논마스터</t>
+        </is>
+      </c>
+      <c r="C16" s="51" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="36" t="inlineStr">
+        <is>
+          <t>레지스탕스</t>
+        </is>
+      </c>
+      <c r="B17" s="37" t="inlineStr">
+        <is>
+          <t>와일드헌터</t>
+        </is>
+      </c>
+      <c r="C17" s="52" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="48" t="n"/>
+      <c r="B18" s="31" t="inlineStr">
+        <is>
+          <t>배틀메이지</t>
+        </is>
+      </c>
+      <c r="C18" s="49" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="48" t="n"/>
+      <c r="B19" s="31" t="inlineStr">
+        <is>
+          <t>메카닉</t>
+        </is>
+      </c>
+      <c r="C19" s="49" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="48" t="n"/>
+      <c r="B20" s="31" t="inlineStr">
+        <is>
+          <t>제논</t>
+        </is>
+      </c>
+      <c r="C20" s="49" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="48" t="n"/>
+      <c r="B21" s="31" t="inlineStr">
+        <is>
+          <t>블래스터</t>
+        </is>
+      </c>
+      <c r="C21" s="49" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="48" t="n"/>
+      <c r="B22" s="31" t="inlineStr">
+        <is>
+          <t>데몬어벤져</t>
+        </is>
+      </c>
+      <c r="C22" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A23" s="50" t="n"/>
+      <c r="B23" s="40" t="inlineStr">
+        <is>
+          <t>데몬슬레이어</t>
+        </is>
+      </c>
+      <c r="C23" s="53" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="inlineStr">
+        <is>
+          <t>시그너스</t>
+        </is>
+      </c>
+      <c r="B24" s="28" t="inlineStr">
+        <is>
+          <t>소울마스터</t>
+        </is>
+      </c>
+      <c r="C24" s="47" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="48" t="n"/>
+      <c r="B25" s="31" t="inlineStr">
+        <is>
+          <t>윈드브레이커</t>
+        </is>
+      </c>
+      <c r="C25" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="48" t="n"/>
+      <c r="B26" s="31" t="inlineStr">
+        <is>
+          <t>플레임위자드</t>
+        </is>
+      </c>
+      <c r="C26" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="48" t="n"/>
+      <c r="B27" s="31" t="inlineStr">
+        <is>
+          <t>나이트로드</t>
+        </is>
+      </c>
+      <c r="C27" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="48" t="n"/>
+      <c r="B28" s="31" t="inlineStr">
+        <is>
+          <t>스트라이커</t>
+        </is>
+      </c>
+      <c r="C28" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A29" s="50" t="n"/>
+      <c r="B29" s="34" t="inlineStr">
+        <is>
+          <t>미하일</t>
+        </is>
+      </c>
+      <c r="C29" s="51" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="36" t="inlineStr">
+        <is>
+          <t>영웅</t>
+        </is>
+      </c>
+      <c r="B30" s="37" t="inlineStr">
+        <is>
+          <t>팬텀</t>
+        </is>
+      </c>
+      <c r="C30" s="52" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="48" t="n"/>
+      <c r="B31" s="31" t="inlineStr">
+        <is>
+          <t>에반</t>
+        </is>
+      </c>
+      <c r="C31" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="48" t="n"/>
+      <c r="B32" s="31" t="inlineStr">
+        <is>
+          <t>루미너스</t>
+        </is>
+      </c>
+      <c r="C32" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="48" t="n"/>
+      <c r="B33" s="31" t="inlineStr">
+        <is>
+          <t>은월</t>
+        </is>
+      </c>
+      <c r="C33" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="48" t="n"/>
+      <c r="B34" s="31" t="inlineStr">
+        <is>
+          <t>메르세데스</t>
+        </is>
+      </c>
+      <c r="C34" s="49" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A35" s="50" t="n"/>
+      <c r="B35" s="40" t="inlineStr">
+        <is>
+          <t>아란</t>
+        </is>
+      </c>
+      <c r="C35" s="53" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>노바</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>카데나</t>
+        </is>
+      </c>
+      <c r="C36" s="47" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="48" t="n"/>
+      <c r="B37" s="31" t="inlineStr">
+        <is>
+          <t>엔젤릭버스터</t>
+        </is>
+      </c>
+      <c r="C37" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="48" t="n"/>
+      <c r="B38" s="31" t="inlineStr">
+        <is>
+          <t>카이저</t>
+        </is>
+      </c>
+      <c r="C38" s="49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A39" s="50" t="n"/>
+      <c r="B39" s="34" t="inlineStr">
+        <is>
+          <t>호영</t>
+        </is>
+      </c>
+      <c r="C39" s="51" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="36" t="inlineStr">
+        <is>
+          <t>레프</t>
+        </is>
+      </c>
+      <c r="B40" s="37" t="inlineStr">
+        <is>
+          <t>일리움</t>
+        </is>
+      </c>
+      <c r="C40" s="52" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="48" t="n"/>
+      <c r="B41" s="31" t="inlineStr">
+        <is>
+          <t>아크</t>
+        </is>
+      </c>
+      <c r="C41" s="49" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A42" s="50" t="n"/>
+      <c r="B42" s="40" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="C42" s="53" t="inlineStr">
+        <is>
+          <t>180초</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A43" s="42" t="inlineStr">
+        <is>
+          <t>초월자</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="inlineStr">
+        <is>
+          <t>제로</t>
+        </is>
+      </c>
+      <c r="C43" s="54" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A44" s="44" t="n"/>
+      <c r="B44" s="45" t="inlineStr">
+        <is>
+          <t>키네</t>
+        </is>
+      </c>
+      <c r="C44" s="55" t="n">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -11322,4 +12483,3417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="3"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="9"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="15"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A1" s="3" t="n"/>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="5" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="4" t="n"/>
+      <c r="M1" s="5" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="4" t="n"/>
+      <c r="S1" s="5" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>수로별 극딜</t>
+        </is>
+      </c>
+      <c r="C2" s="54">
+        <f>IF(MAX(E8:E13,E17:E22,E26:E31)&lt;300,MAX(E8:E13,E17:E22,E26:E31),IF(MAX(E8:E13,E17:E22,E26:E31)=300,LARGE(E8:E31,2)))</f>
+        <v/>
+      </c>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>수로별 극딜</t>
+        </is>
+      </c>
+      <c r="I2" s="54">
+        <f>IF(MAX(K8:K13,K17:K22,K26:K31)&lt;300,MAX(K8:K13,K17:K22,K26:K31),IF(MAX(K8:K13,K17:K22,K26:K31)=300,LARGE(K8:K31,2)))</f>
+        <v/>
+      </c>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>수로별 극딜</t>
+        </is>
+      </c>
+      <c r="O2" s="54">
+        <f>IF(MAX(Q8:Q13,Q17:Q22,Q26:Q31)&lt;300,MAX(Q8:Q13,Q17:Q22,Q26:Q31),IF(MAX(Q8:Q13,Q17:Q22,Q26:Q31)=300,LARGE(Q8:Q31,2)))</f>
+        <v/>
+      </c>
+      <c r="P2" s="3" t="n"/>
+      <c r="Q2" s="3" t="n"/>
+      <c r="R2" s="4" t="n"/>
+      <c r="S2" s="5" t="n"/>
+      <c r="T2" s="6" t="inlineStr">
+        <is>
+          <t>수로별 극딜</t>
+        </is>
+      </c>
+      <c r="U2" s="54">
+        <f>IF(MAX(W8:W13,W17:W22,W26:W31)&lt;300,MAX(W8:W13,W17:W22,W26:W31),IF(MAX(W8:W13,W17:W22,W26:W31)=300,LARGE(W8:W31,2)))</f>
+        <v/>
+      </c>
+      <c r="V2" s="3" t="n"/>
+      <c r="W2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="4" t="n"/>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="3" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="3" t="n"/>
+      <c r="R4" s="4" t="n"/>
+      <c r="S4" s="5" t="n"/>
+      <c r="T4" s="3" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
+      <c r="W4" s="3" t="n"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>1수로</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>2수로</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="5" t="n"/>
+      <c r="N5" s="8" t="inlineStr">
+        <is>
+          <t>3수로</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="4" t="n"/>
+      <c r="S5" s="5" t="n"/>
+      <c r="T5" s="8" t="inlineStr">
+        <is>
+          <t>4수로</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>1파티</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="9" t="inlineStr">
+        <is>
+          <t>1파티</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="5" t="n"/>
+      <c r="N6" s="9" t="inlineStr">
+        <is>
+          <t>1파티</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="5" t="n"/>
+      <c r="T6" s="9" t="inlineStr">
+        <is>
+          <t>1파티</t>
+        </is>
+      </c>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="J7" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="K7" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="5" t="n"/>
+      <c r="N7" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="O7" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="P7" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="Q7" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="n"/>
+      <c r="S7" s="5" t="n"/>
+      <c r="T7" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="U7" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="V7" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="W7" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="17" t="n"/>
+      <c r="C8" s="18" t="n"/>
+      <c r="D8" s="57" t="n"/>
+      <c r="E8" s="58" t="n"/>
+      <c r="F8" s="59" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="17" t="n"/>
+      <c r="I8" s="18">
+        <f>IFERROR(VLOOKUP(H8,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J8" s="57">
+        <f>IFERROR(VLOOKUP(H8,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="58">
+        <f>IFERROR(VLOOKUP(I8,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="59" t="n"/>
+      <c r="M8" s="5" t="n"/>
+      <c r="N8" s="17" t="n"/>
+      <c r="O8" s="18">
+        <f>IFERROR(VLOOKUP(N8,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="57">
+        <f>IFERROR(VLOOKUP(N8,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="58">
+        <f>IFERROR(VLOOKUP(O8,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R8" s="59" t="n"/>
+      <c r="S8" s="5" t="n"/>
+      <c r="T8" s="17" t="n"/>
+      <c r="U8" s="18">
+        <f>IFERROR(VLOOKUP(T8,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V8" s="57">
+        <f>IFERROR(VLOOKUP(T8,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W8" s="58">
+        <f>IFERROR(VLOOKUP(U8,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="19" t="n"/>
+      <c r="C9" s="20" t="n"/>
+      <c r="D9" s="60" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="59" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="19" t="n"/>
+      <c r="I9" s="20">
+        <f>IFERROR(VLOOKUP(H9,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J9" s="60">
+        <f>IFERROR(VLOOKUP(H9,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="61">
+        <f>IFERROR(VLOOKUP(I9,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L9" s="59" t="n"/>
+      <c r="M9" s="5" t="n"/>
+      <c r="N9" s="19" t="n"/>
+      <c r="O9" s="20">
+        <f>IFERROR(VLOOKUP(N9,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="60">
+        <f>IFERROR(VLOOKUP(N9,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="61">
+        <f>IFERROR(VLOOKUP(O9,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="59" t="n"/>
+      <c r="S9" s="5" t="n"/>
+      <c r="T9" s="19" t="n"/>
+      <c r="U9" s="20">
+        <f>IFERROR(VLOOKUP(T9,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V9" s="60">
+        <f>IFERROR(VLOOKUP(T9,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W9" s="61">
+        <f>IFERROR(VLOOKUP(U9,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="19" t="n"/>
+      <c r="C10" s="20" t="n"/>
+      <c r="D10" s="60" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="59" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="19" t="n"/>
+      <c r="I10" s="20">
+        <f>IFERROR(VLOOKUP(H10,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J10" s="60">
+        <f>IFERROR(VLOOKUP(H10,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="61">
+        <f>IFERROR(VLOOKUP(I10,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="59" t="n"/>
+      <c r="M10" s="5" t="n"/>
+      <c r="N10" s="19" t="n"/>
+      <c r="O10" s="20">
+        <f>IFERROR(VLOOKUP(N10,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="60">
+        <f>IFERROR(VLOOKUP(N10,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q10" s="61">
+        <f>IFERROR(VLOOKUP(O10,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R10" s="59" t="n"/>
+      <c r="S10" s="5" t="n"/>
+      <c r="T10" s="19" t="n"/>
+      <c r="U10" s="20">
+        <f>IFERROR(VLOOKUP(T10,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V10" s="60">
+        <f>IFERROR(VLOOKUP(T10,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W10" s="61">
+        <f>IFERROR(VLOOKUP(U10,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="20" t="n"/>
+      <c r="D11" s="60" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="59" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="19" t="n"/>
+      <c r="I11" s="20">
+        <f>IFERROR(VLOOKUP(H11,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="60">
+        <f>IFERROR(VLOOKUP(H11,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="61">
+        <f>IFERROR(VLOOKUP(I11,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="59" t="n"/>
+      <c r="M11" s="5" t="n"/>
+      <c r="N11" s="19" t="n"/>
+      <c r="O11" s="20">
+        <f>IFERROR(VLOOKUP(N11,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="60">
+        <f>IFERROR(VLOOKUP(N11,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="61">
+        <f>IFERROR(VLOOKUP(O11,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="59" t="n"/>
+      <c r="S11" s="5" t="n"/>
+      <c r="T11" s="19" t="n"/>
+      <c r="U11" s="20">
+        <f>IFERROR(VLOOKUP(T11,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V11" s="60">
+        <f>IFERROR(VLOOKUP(T11,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W11" s="61">
+        <f>IFERROR(VLOOKUP(U11,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="20" t="n"/>
+      <c r="D12" s="60" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="59" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="20">
+        <f>IFERROR(VLOOKUP(H12,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J12" s="60">
+        <f>IFERROR(VLOOKUP(H12,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="61">
+        <f>IFERROR(VLOOKUP(I12,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="59" t="n"/>
+      <c r="M12" s="5" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="20">
+        <f>IFERROR(VLOOKUP(N12,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="60">
+        <f>IFERROR(VLOOKUP(N12,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q12" s="61">
+        <f>IFERROR(VLOOKUP(O12,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R12" s="59" t="n"/>
+      <c r="S12" s="5" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="20">
+        <f>IFERROR(VLOOKUP(T12,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V12" s="60">
+        <f>IFERROR(VLOOKUP(T12,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W12" s="61">
+        <f>IFERROR(VLOOKUP(U12,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="23" t="n"/>
+      <c r="C13" s="24" t="n"/>
+      <c r="D13" s="62" t="n"/>
+      <c r="E13" s="63" t="n"/>
+      <c r="F13" s="59" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="23" t="n"/>
+      <c r="I13" s="24">
+        <f>IFERROR(VLOOKUP(H13,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="62">
+        <f>IFERROR(VLOOKUP(H13,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="63">
+        <f>IFERROR(VLOOKUP(I13,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="59" t="n"/>
+      <c r="M13" s="5" t="n"/>
+      <c r="N13" s="23" t="n"/>
+      <c r="O13" s="24">
+        <f>IFERROR(VLOOKUP(N13,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="62">
+        <f>IFERROR(VLOOKUP(N13,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="63">
+        <f>IFERROR(VLOOKUP(O13,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="59" t="n"/>
+      <c r="S13" s="5" t="n"/>
+      <c r="T13" s="23" t="n"/>
+      <c r="U13" s="24">
+        <f>IFERROR(VLOOKUP(T13,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V13" s="62">
+        <f>IFERROR(VLOOKUP(T13,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W13" s="63">
+        <f>IFERROR(VLOOKUP(U13,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="4" t="n"/>
+      <c r="M14" s="5" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="4" t="n"/>
+      <c r="S14" s="5" t="n"/>
+      <c r="T14" s="3" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="3" t="n"/>
+      <c r="W14" s="3" t="n"/>
+    </row>
+    <row r="15" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>2파티</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="9" t="inlineStr">
+        <is>
+          <t>2파티</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="4" t="n"/>
+      <c r="M15" s="5" t="n"/>
+      <c r="N15" s="9" t="inlineStr">
+        <is>
+          <t>2파티</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="4" t="n"/>
+      <c r="S15" s="5" t="n"/>
+      <c r="T15" s="9" t="inlineStr">
+        <is>
+          <t>2파티</t>
+        </is>
+      </c>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="n"/>
+    </row>
+    <row r="16" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="I16" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="J16" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="K16" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="n"/>
+      <c r="M16" s="5" t="n"/>
+      <c r="N16" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="O16" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="P16" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="Q16" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="R16" s="4" t="n"/>
+      <c r="S16" s="5" t="n"/>
+      <c r="T16" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="U16" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="V16" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="W16" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="17" t="n"/>
+      <c r="C17" s="18">
+        <f>IFERROR(VLOOKUP(B17,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="57">
+        <f>IFERROR(VLOOKUP(B17,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="58">
+        <f>IFERROR(VLOOKUP(C17,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="59" t="n"/>
+      <c r="G17" s="5" t="n"/>
+      <c r="H17" s="17" t="n"/>
+      <c r="I17" s="18">
+        <f>IFERROR(VLOOKUP(H17,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="57">
+        <f>IFERROR(VLOOKUP(H17,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="58">
+        <f>IFERROR(VLOOKUP(I17,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="59" t="n"/>
+      <c r="M17" s="5" t="n"/>
+      <c r="N17" s="17" t="n"/>
+      <c r="O17" s="18">
+        <f>IFERROR(VLOOKUP(N17,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="57">
+        <f>IFERROR(VLOOKUP(N17,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="58">
+        <f>IFERROR(VLOOKUP(O17,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R17" s="59" t="n"/>
+      <c r="S17" s="5" t="n"/>
+      <c r="T17" s="17" t="n"/>
+      <c r="U17" s="18">
+        <f>IFERROR(VLOOKUP(T17,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="57">
+        <f>IFERROR(VLOOKUP(T17,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W17" s="58">
+        <f>IFERROR(VLOOKUP(U17,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="19" t="n"/>
+      <c r="C18" s="20">
+        <f>IFERROR(VLOOKUP(B18,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="60">
+        <f>IFERROR(VLOOKUP(B18,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="61">
+        <f>IFERROR(VLOOKUP(C18,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="59" t="n"/>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="19" t="n"/>
+      <c r="I18" s="20">
+        <f>IFERROR(VLOOKUP(H18,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J18" s="60">
+        <f>IFERROR(VLOOKUP(H18,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K18" s="61">
+        <f>IFERROR(VLOOKUP(I18,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="59" t="n"/>
+      <c r="M18" s="5" t="n"/>
+      <c r="N18" s="19" t="n"/>
+      <c r="O18" s="20">
+        <f>IFERROR(VLOOKUP(N18,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="60">
+        <f>IFERROR(VLOOKUP(N18,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="61">
+        <f>IFERROR(VLOOKUP(O18,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R18" s="59" t="n"/>
+      <c r="S18" s="5" t="n"/>
+      <c r="T18" s="19" t="n"/>
+      <c r="U18" s="20">
+        <f>IFERROR(VLOOKUP(T18,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V18" s="60">
+        <f>IFERROR(VLOOKUP(T18,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W18" s="61">
+        <f>IFERROR(VLOOKUP(U18,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="19" t="n"/>
+      <c r="C19" s="20">
+        <f>IFERROR(VLOOKUP(B19,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="60">
+        <f>IFERROR(VLOOKUP(B19,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="61">
+        <f>IFERROR(VLOOKUP(C19,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="59" t="n"/>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="19" t="n"/>
+      <c r="I19" s="20">
+        <f>IFERROR(VLOOKUP(H19,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="60">
+        <f>IFERROR(VLOOKUP(H19,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K19" s="61">
+        <f>IFERROR(VLOOKUP(I19,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L19" s="59" t="n"/>
+      <c r="M19" s="5" t="n"/>
+      <c r="N19" s="19" t="n"/>
+      <c r="O19" s="20">
+        <f>IFERROR(VLOOKUP(N19,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="60">
+        <f>IFERROR(VLOOKUP(N19,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q19" s="61">
+        <f>IFERROR(VLOOKUP(O19,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R19" s="59" t="n"/>
+      <c r="S19" s="5" t="n"/>
+      <c r="T19" s="19" t="n"/>
+      <c r="U19" s="20">
+        <f>IFERROR(VLOOKUP(T19,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V19" s="60">
+        <f>IFERROR(VLOOKUP(T19,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W19" s="61">
+        <f>IFERROR(VLOOKUP(U19,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="20">
+        <f>IFERROR(VLOOKUP(B20,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="60">
+        <f>IFERROR(VLOOKUP(B20,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="61">
+        <f>IFERROR(VLOOKUP(C20,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="59" t="n"/>
+      <c r="G20" s="5" t="n"/>
+      <c r="H20" s="19" t="n"/>
+      <c r="I20" s="20">
+        <f>IFERROR(VLOOKUP(H20,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="60">
+        <f>IFERROR(VLOOKUP(H20,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K20" s="61">
+        <f>IFERROR(VLOOKUP(I20,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L20" s="59" t="n"/>
+      <c r="M20" s="5" t="n"/>
+      <c r="N20" s="19" t="n"/>
+      <c r="O20" s="20">
+        <f>IFERROR(VLOOKUP(N20,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="60">
+        <f>IFERROR(VLOOKUP(N20,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q20" s="61">
+        <f>IFERROR(VLOOKUP(O20,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R20" s="59" t="n"/>
+      <c r="S20" s="5" t="n"/>
+      <c r="T20" s="19" t="n"/>
+      <c r="U20" s="20">
+        <f>IFERROR(VLOOKUP(T20,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V20" s="60">
+        <f>IFERROR(VLOOKUP(T20,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W20" s="61">
+        <f>IFERROR(VLOOKUP(U20,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="20">
+        <f>IFERROR(VLOOKUP(B21,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D21" s="60">
+        <f>IFERROR(VLOOKUP(B21,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E21" s="61">
+        <f>IFERROR(VLOOKUP(C21,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="59" t="n"/>
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="20">
+        <f>IFERROR(VLOOKUP(H21,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="60">
+        <f>IFERROR(VLOOKUP(H21,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K21" s="61">
+        <f>IFERROR(VLOOKUP(I21,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L21" s="59" t="n"/>
+      <c r="M21" s="5" t="n"/>
+      <c r="N21" s="19" t="n"/>
+      <c r="O21" s="20">
+        <f>IFERROR(VLOOKUP(N21,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="60">
+        <f>IFERROR(VLOOKUP(N21,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q21" s="61">
+        <f>IFERROR(VLOOKUP(O21,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R21" s="59" t="n"/>
+      <c r="S21" s="5" t="n"/>
+      <c r="T21" s="19" t="n"/>
+      <c r="U21" s="20">
+        <f>IFERROR(VLOOKUP(T21,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V21" s="60">
+        <f>IFERROR(VLOOKUP(T21,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W21" s="61">
+        <f>IFERROR(VLOOKUP(U21,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="23" t="n"/>
+      <c r="C22" s="24">
+        <f>IFERROR(VLOOKUP(B22,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D22" s="62">
+        <f>IFERROR(VLOOKUP(B22,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E22" s="63">
+        <f>IFERROR(VLOOKUP(C22,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="59" t="n"/>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="23" t="n"/>
+      <c r="I22" s="24">
+        <f>IFERROR(VLOOKUP(H22,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J22" s="62">
+        <f>IFERROR(VLOOKUP(H22,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="63">
+        <f>IFERROR(VLOOKUP(I22,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L22" s="59" t="n"/>
+      <c r="M22" s="5" t="n"/>
+      <c r="N22" s="23" t="n"/>
+      <c r="O22" s="24">
+        <f>IFERROR(VLOOKUP(N22,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="62">
+        <f>IFERROR(VLOOKUP(N22,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q22" s="63">
+        <f>IFERROR(VLOOKUP(O22,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R22" s="59" t="n"/>
+      <c r="S22" s="5" t="n"/>
+      <c r="T22" s="23" t="n"/>
+      <c r="U22" s="24">
+        <f>IFERROR(VLOOKUP(T22,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V22" s="62">
+        <f>IFERROR(VLOOKUP(T22,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W22" s="63">
+        <f>IFERROR(VLOOKUP(U22,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="4" t="n"/>
+      <c r="G23" s="5" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="4" t="n"/>
+      <c r="M23" s="5" t="n"/>
+      <c r="N23" s="3" t="n"/>
+      <c r="O23" s="3" t="n"/>
+      <c r="P23" s="3" t="n"/>
+      <c r="Q23" s="3" t="n"/>
+      <c r="R23" s="4" t="n"/>
+      <c r="S23" s="5" t="n"/>
+      <c r="T23" s="3" t="n"/>
+      <c r="U23" s="3" t="n"/>
+      <c r="V23" s="3" t="n"/>
+      <c r="W23" s="3" t="n"/>
+    </row>
+    <row r="24" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>3파티</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="4" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>3파티</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="4" t="n"/>
+      <c r="M24" s="5" t="n"/>
+      <c r="N24" s="9" t="inlineStr">
+        <is>
+          <t>3파티</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="n"/>
+      <c r="P24" s="3" t="n"/>
+      <c r="Q24" s="3" t="n"/>
+      <c r="R24" s="4" t="n"/>
+      <c r="S24" s="5" t="n"/>
+      <c r="T24" s="9" t="inlineStr">
+        <is>
+          <t>3파티</t>
+        </is>
+      </c>
+      <c r="U24" s="3" t="n"/>
+      <c r="V24" s="3" t="n"/>
+      <c r="W24" s="3" t="n"/>
+    </row>
+    <row r="25" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="E25" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="5" t="n"/>
+      <c r="H25" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="J25" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="K25" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="n"/>
+      <c r="M25" s="5" t="n"/>
+      <c r="N25" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="O25" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="P25" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="Q25" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="n"/>
+      <c r="S25" s="5" t="n"/>
+      <c r="T25" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="U25" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="V25" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="W25" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="18">
+        <f>IFERROR(VLOOKUP(B26,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D26" s="57">
+        <f>IFERROR(VLOOKUP(B26,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E26" s="58">
+        <f>IFERROR(VLOOKUP(C26,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="59" t="n"/>
+      <c r="G26" s="5" t="n"/>
+      <c r="H26" s="17" t="n"/>
+      <c r="I26" s="18">
+        <f>IFERROR(VLOOKUP(H26,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J26" s="57">
+        <f>IFERROR(VLOOKUP(H26,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="58">
+        <f>IFERROR(VLOOKUP(I26,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L26" s="59" t="n"/>
+      <c r="M26" s="5" t="n"/>
+      <c r="N26" s="17" t="n"/>
+      <c r="O26" s="18">
+        <f>IFERROR(VLOOKUP(N26,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P26" s="57">
+        <f>IFERROR(VLOOKUP(N26,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="58">
+        <f>IFERROR(VLOOKUP(O26,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R26" s="59" t="n"/>
+      <c r="S26" s="5" t="n"/>
+      <c r="T26" s="17" t="n"/>
+      <c r="U26" s="18">
+        <f>IFERROR(VLOOKUP(T26,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V26" s="57">
+        <f>IFERROR(VLOOKUP(T26,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W26" s="58">
+        <f>IFERROR(VLOOKUP(U26,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="19" t="n"/>
+      <c r="C27" s="20">
+        <f>IFERROR(VLOOKUP(B27,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D27" s="60">
+        <f>IFERROR(VLOOKUP(B27,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="61">
+        <f>IFERROR(VLOOKUP(C27,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="59" t="n"/>
+      <c r="G27" s="5" t="n"/>
+      <c r="H27" s="19" t="n"/>
+      <c r="I27" s="20">
+        <f>IFERROR(VLOOKUP(H27,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J27" s="60">
+        <f>IFERROR(VLOOKUP(H27,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K27" s="61">
+        <f>IFERROR(VLOOKUP(I27,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L27" s="59" t="n"/>
+      <c r="M27" s="5" t="n"/>
+      <c r="N27" s="19" t="n"/>
+      <c r="O27" s="20">
+        <f>IFERROR(VLOOKUP(N27,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P27" s="60">
+        <f>IFERROR(VLOOKUP(N27,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q27" s="61">
+        <f>IFERROR(VLOOKUP(O27,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R27" s="59" t="n"/>
+      <c r="S27" s="5" t="n"/>
+      <c r="T27" s="19" t="n"/>
+      <c r="U27" s="20">
+        <f>IFERROR(VLOOKUP(T27,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V27" s="60">
+        <f>IFERROR(VLOOKUP(T27,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W27" s="61">
+        <f>IFERROR(VLOOKUP(U27,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="19" t="n"/>
+      <c r="C28" s="20">
+        <f>IFERROR(VLOOKUP(B28,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D28" s="60">
+        <f>IFERROR(VLOOKUP(B28,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E28" s="61">
+        <f>IFERROR(VLOOKUP(C28,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="59" t="n"/>
+      <c r="G28" s="5" t="n"/>
+      <c r="H28" s="19" t="n"/>
+      <c r="I28" s="20">
+        <f>IFERROR(VLOOKUP(H28,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J28" s="60">
+        <f>IFERROR(VLOOKUP(H28,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K28" s="61">
+        <f>IFERROR(VLOOKUP(I28,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L28" s="59" t="n"/>
+      <c r="M28" s="5" t="n"/>
+      <c r="N28" s="19" t="n"/>
+      <c r="O28" s="20">
+        <f>IFERROR(VLOOKUP(N28,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P28" s="60">
+        <f>IFERROR(VLOOKUP(N28,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="61">
+        <f>IFERROR(VLOOKUP(O28,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R28" s="59" t="n"/>
+      <c r="S28" s="5" t="n"/>
+      <c r="T28" s="19" t="n"/>
+      <c r="U28" s="20">
+        <f>IFERROR(VLOOKUP(T28,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V28" s="60">
+        <f>IFERROR(VLOOKUP(T28,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W28" s="61">
+        <f>IFERROR(VLOOKUP(U28,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="19" t="n"/>
+      <c r="C29" s="20" t="n"/>
+      <c r="D29" s="60">
+        <f>IFERROR(VLOOKUP(B29,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="61">
+        <f>IFERROR(VLOOKUP(C29,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="59" t="n"/>
+      <c r="G29" s="5" t="n"/>
+      <c r="H29" s="19" t="n"/>
+      <c r="I29" s="20">
+        <f>IFERROR(VLOOKUP(H29,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J29" s="60">
+        <f>IFERROR(VLOOKUP(H29,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K29" s="61">
+        <f>IFERROR(VLOOKUP(I29,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="59" t="n"/>
+      <c r="M29" s="5" t="n"/>
+      <c r="N29" s="19" t="n"/>
+      <c r="O29" s="20">
+        <f>IFERROR(VLOOKUP(N29,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="60">
+        <f>IFERROR(VLOOKUP(N29,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="61">
+        <f>IFERROR(VLOOKUP(O29,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R29" s="59" t="n"/>
+      <c r="S29" s="5" t="n"/>
+      <c r="T29" s="19" t="n"/>
+      <c r="U29" s="20">
+        <f>IFERROR(VLOOKUP(T29,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V29" s="60">
+        <f>IFERROR(VLOOKUP(T29,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W29" s="61">
+        <f>IFERROR(VLOOKUP(U29,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n"/>
+      <c r="B30" s="19" t="n"/>
+      <c r="C30" s="20">
+        <f>IFERROR(VLOOKUP(B30,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="60">
+        <f>IFERROR(VLOOKUP(B30,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E30" s="61">
+        <f>IFERROR(VLOOKUP(C30,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="59" t="n"/>
+      <c r="G30" s="5" t="n"/>
+      <c r="H30" s="19" t="n"/>
+      <c r="I30" s="20">
+        <f>IFERROR(VLOOKUP(H30,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="60">
+        <f>IFERROR(VLOOKUP(H30,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K30" s="61">
+        <f>IFERROR(VLOOKUP(I30,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="59" t="n"/>
+      <c r="M30" s="5" t="n"/>
+      <c r="N30" s="19" t="n"/>
+      <c r="O30" s="20">
+        <f>IFERROR(VLOOKUP(N30,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="60">
+        <f>IFERROR(VLOOKUP(N30,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="61">
+        <f>IFERROR(VLOOKUP(O30,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R30" s="59" t="n"/>
+      <c r="S30" s="5" t="n"/>
+      <c r="T30" s="19" t="n"/>
+      <c r="U30" s="20">
+        <f>IFERROR(VLOOKUP(T30,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V30" s="60">
+        <f>IFERROR(VLOOKUP(T30,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W30" s="61">
+        <f>IFERROR(VLOOKUP(U30,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A31" s="3" t="n"/>
+      <c r="B31" s="23" t="n"/>
+      <c r="C31" s="24">
+        <f>IFERROR(VLOOKUP(B31,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="62">
+        <f>IFERROR(VLOOKUP(B31,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="63">
+        <f>IFERROR(VLOOKUP(C31,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="59" t="n"/>
+      <c r="G31" s="5" t="n"/>
+      <c r="H31" s="23" t="n"/>
+      <c r="I31" s="24">
+        <f>IFERROR(VLOOKUP(H31,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="62">
+        <f>IFERROR(VLOOKUP(H31,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K31" s="63">
+        <f>IFERROR(VLOOKUP(I31,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="59" t="n"/>
+      <c r="M31" s="5" t="n"/>
+      <c r="N31" s="23" t="n"/>
+      <c r="O31" s="24">
+        <f>IFERROR(VLOOKUP(N31,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="62">
+        <f>IFERROR(VLOOKUP(N31,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="63">
+        <f>IFERROR(VLOOKUP(O31,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R31" s="59" t="n"/>
+      <c r="S31" s="5" t="n"/>
+      <c r="T31" s="23" t="n"/>
+      <c r="U31" s="24">
+        <f>IFERROR(VLOOKUP(T31,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V31" s="62">
+        <f>IFERROR(VLOOKUP(T31,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W31" s="63">
+        <f>IFERROR(VLOOKUP(U31,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="4" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="n"/>
+      <c r="L32" s="4" t="n"/>
+      <c r="M32" s="3" t="n"/>
+      <c r="N32" s="3" t="n"/>
+      <c r="O32" s="3" t="n"/>
+      <c r="P32" s="3" t="n"/>
+      <c r="Q32" s="3" t="n"/>
+      <c r="R32" s="4" t="n"/>
+      <c r="S32" s="3" t="n"/>
+      <c r="T32" s="3" t="n"/>
+      <c r="U32" s="3" t="n"/>
+      <c r="V32" s="3" t="n"/>
+      <c r="W32" s="3" t="n"/>
+    </row>
+    <row r="33" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="4" t="n"/>
+      <c r="G33" s="5" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="n"/>
+      <c r="L33" s="4" t="n"/>
+      <c r="M33" s="5" t="n"/>
+      <c r="N33" s="3" t="n"/>
+      <c r="O33" s="3" t="n"/>
+      <c r="P33" s="3" t="n"/>
+      <c r="Q33" s="3" t="n"/>
+      <c r="R33" s="4" t="n"/>
+      <c r="S33" s="5" t="n"/>
+      <c r="T33" s="3" t="n"/>
+      <c r="U33" s="3" t="n"/>
+      <c r="V33" s="3" t="n"/>
+      <c r="W33" s="3" t="n"/>
+    </row>
+    <row r="34" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A34" s="3" t="n"/>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>수로별 극딜</t>
+        </is>
+      </c>
+      <c r="C34" s="54">
+        <f>IF(MAX(E40:E45,E49:E54,E58:E63)&lt;300,MAX(E40:E45,E49:E54,E58:E63),IF(MAX(E40:E45,E49:E54,E58:E63)=300,LARGE(E40:E63,2)))</f>
+        <v/>
+      </c>
+      <c r="D34" s="3" t="n"/>
+      <c r="E34" s="3" t="n"/>
+      <c r="F34" s="4" t="n"/>
+      <c r="G34" s="5" t="n"/>
+      <c r="H34" s="6" t="inlineStr">
+        <is>
+          <t>수로별 극딜</t>
+        </is>
+      </c>
+      <c r="I34" s="54">
+        <f>IF(MAX(K40:K45,K49:K54,K58:K63)&lt;300,MAX(K40:K45,K49:K54,K58:K63),IF(MAX(K40:K45,K49:K54,K58:K63)=300,LARGE(K40:K63,2)))</f>
+        <v/>
+      </c>
+      <c r="J34" s="3" t="n"/>
+      <c r="K34" s="3" t="n"/>
+      <c r="L34" s="4" t="n"/>
+      <c r="M34" s="5" t="n"/>
+      <c r="N34" s="6" t="inlineStr">
+        <is>
+          <t>수로별 극딜</t>
+        </is>
+      </c>
+      <c r="O34" s="54">
+        <f>IF(MAX(Q40:Q45,Q49:Q54,Q58:Q63)&lt;300,MAX(Q40:Q45,Q49:Q54,Q58:Q63),IF(MAX(Q40:Q45,Q49:Q54,Q58:Q63)=300,LARGE(Q40:Q63,2)))</f>
+        <v/>
+      </c>
+      <c r="P34" s="3" t="n"/>
+      <c r="Q34" s="3" t="n"/>
+      <c r="R34" s="4" t="n"/>
+      <c r="S34" s="5" t="n"/>
+      <c r="T34" s="6" t="inlineStr">
+        <is>
+          <t>수로별 극딜</t>
+        </is>
+      </c>
+      <c r="U34" s="54">
+        <f>IF(MAX(W40:W45,W49:W54,W58:W63)&lt;300,MAX(W40:W45,W49:W54,W58:W63),IF(MAX(W40:W45,W49:W54,W58:W63)=300,LARGE(W40:W63,2)))</f>
+        <v/>
+      </c>
+      <c r="V34" s="3" t="n"/>
+      <c r="W34" s="3" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="4" t="n"/>
+      <c r="G35" s="5" t="n"/>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
+      <c r="L35" s="4" t="n"/>
+      <c r="M35" s="5" t="n"/>
+      <c r="N35" s="3" t="n"/>
+      <c r="O35" s="3" t="n"/>
+      <c r="P35" s="3" t="n"/>
+      <c r="Q35" s="3" t="n"/>
+      <c r="R35" s="4" t="n"/>
+      <c r="S35" s="5" t="n"/>
+      <c r="T35" s="3" t="n"/>
+      <c r="U35" s="3" t="n"/>
+      <c r="V35" s="3" t="n"/>
+      <c r="W35" s="3" t="n"/>
+    </row>
+    <row r="36" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A36" s="3" t="n"/>
+      <c r="B36" s="3" t="n"/>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="3" t="n"/>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="4" t="n"/>
+      <c r="G36" s="5" t="n"/>
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="n"/>
+      <c r="L36" s="4" t="n"/>
+      <c r="M36" s="5" t="n"/>
+      <c r="N36" s="3" t="n"/>
+      <c r="O36" s="3" t="n"/>
+      <c r="P36" s="3" t="n"/>
+      <c r="Q36" s="3" t="n"/>
+      <c r="R36" s="4" t="n"/>
+      <c r="S36" s="5" t="n"/>
+      <c r="T36" s="3" t="n"/>
+      <c r="U36" s="3" t="n"/>
+      <c r="V36" s="3" t="n"/>
+      <c r="W36" s="3" t="n"/>
+    </row>
+    <row r="37" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>5수로</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="5" t="n"/>
+      <c r="H37" s="8" t="inlineStr">
+        <is>
+          <t>6수로</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="5" t="n"/>
+      <c r="N37" s="8" t="inlineStr">
+        <is>
+          <t>7수로</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="n"/>
+      <c r="P37" s="3" t="n"/>
+      <c r="Q37" s="3" t="n"/>
+      <c r="R37" s="4" t="n"/>
+      <c r="S37" s="5" t="n"/>
+      <c r="T37" s="8" t="inlineStr">
+        <is>
+          <t>8수로</t>
+        </is>
+      </c>
+      <c r="U37" s="3" t="n"/>
+      <c r="V37" s="3" t="n"/>
+      <c r="W37" s="3" t="n"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A38" s="3" t="n"/>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>1파티</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" s="3" t="n"/>
+      <c r="E38" s="3" t="n"/>
+      <c r="F38" s="4" t="n"/>
+      <c r="G38" s="5" t="n"/>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>1파티</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="n"/>
+      <c r="J38" s="3" t="n"/>
+      <c r="K38" s="3" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="5" t="n"/>
+      <c r="N38" s="9" t="inlineStr">
+        <is>
+          <t>1파티</t>
+        </is>
+      </c>
+      <c r="O38" s="3" t="n"/>
+      <c r="P38" s="3" t="n"/>
+      <c r="Q38" s="3" t="n"/>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="5" t="n"/>
+      <c r="T38" s="9" t="inlineStr">
+        <is>
+          <t>1파티</t>
+        </is>
+      </c>
+      <c r="U38" s="3" t="n"/>
+      <c r="V38" s="3" t="n"/>
+      <c r="W38" s="3" t="n"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="D39" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="E39" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="5" t="n"/>
+      <c r="H39" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="I39" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="J39" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="K39" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="5" t="n"/>
+      <c r="N39" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="O39" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="P39" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="Q39" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="5" t="n"/>
+      <c r="T39" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="U39" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="V39" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="W39" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n"/>
+      <c r="B40" s="17" t="n"/>
+      <c r="C40" s="18">
+        <f>IFERROR(VLOOKUP(B40,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D40" s="57">
+        <f>IFERROR(VLOOKUP(B40,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="58">
+        <f>IFERROR(VLOOKUP(C40,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F40" s="59" t="n"/>
+      <c r="G40" s="5" t="n"/>
+      <c r="H40" s="17" t="n"/>
+      <c r="I40" s="18">
+        <f>IFERROR(VLOOKUP(H40,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="57">
+        <f>IFERROR(VLOOKUP(H40,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K40" s="58">
+        <f>IFERROR(VLOOKUP(I40,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="59" t="n"/>
+      <c r="M40" s="5" t="n"/>
+      <c r="N40" s="17" t="n"/>
+      <c r="O40" s="18">
+        <f>IFERROR(VLOOKUP(N40,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="57">
+        <f>IFERROR(VLOOKUP(N40,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="58">
+        <f>IFERROR(VLOOKUP(O40,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R40" s="59" t="n"/>
+      <c r="S40" s="5" t="n"/>
+      <c r="T40" s="17" t="n"/>
+      <c r="U40" s="18">
+        <f>IFERROR(VLOOKUP(T40,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V40" s="57">
+        <f>IFERROR(VLOOKUP(T40,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W40" s="58">
+        <f>IFERROR(VLOOKUP(U40,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="19" t="n"/>
+      <c r="C41" s="20">
+        <f>IFERROR(VLOOKUP(B41,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D41" s="60">
+        <f>IFERROR(VLOOKUP(B41,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E41" s="61">
+        <f>IFERROR(VLOOKUP(C41,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="59" t="n"/>
+      <c r="G41" s="5" t="n"/>
+      <c r="H41" s="19" t="n"/>
+      <c r="I41" s="20">
+        <f>IFERROR(VLOOKUP(H41,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J41" s="60">
+        <f>IFERROR(VLOOKUP(H41,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K41" s="61">
+        <f>IFERROR(VLOOKUP(I41,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L41" s="59" t="n"/>
+      <c r="M41" s="5" t="n"/>
+      <c r="N41" s="19" t="n"/>
+      <c r="O41" s="20">
+        <f>IFERROR(VLOOKUP(N41,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P41" s="60">
+        <f>IFERROR(VLOOKUP(N41,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q41" s="61">
+        <f>IFERROR(VLOOKUP(O41,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R41" s="59" t="n"/>
+      <c r="S41" s="5" t="n"/>
+      <c r="T41" s="19" t="n"/>
+      <c r="U41" s="20">
+        <f>IFERROR(VLOOKUP(T41,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V41" s="60">
+        <f>IFERROR(VLOOKUP(T41,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W41" s="61">
+        <f>IFERROR(VLOOKUP(U41,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n"/>
+      <c r="B42" s="19" t="n"/>
+      <c r="C42" s="20">
+        <f>IFERROR(VLOOKUP(B42,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D42" s="60">
+        <f>IFERROR(VLOOKUP(B42,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E42" s="61">
+        <f>IFERROR(VLOOKUP(C42,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F42" s="59" t="n"/>
+      <c r="G42" s="5" t="n"/>
+      <c r="H42" s="19" t="n"/>
+      <c r="I42" s="20">
+        <f>IFERROR(VLOOKUP(H42,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J42" s="60">
+        <f>IFERROR(VLOOKUP(H42,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K42" s="61">
+        <f>IFERROR(VLOOKUP(I42,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L42" s="59" t="n"/>
+      <c r="M42" s="5" t="n"/>
+      <c r="N42" s="19" t="n"/>
+      <c r="O42" s="20">
+        <f>IFERROR(VLOOKUP(N42,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P42" s="60">
+        <f>IFERROR(VLOOKUP(N42,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q42" s="61">
+        <f>IFERROR(VLOOKUP(O42,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R42" s="59" t="n"/>
+      <c r="S42" s="5" t="n"/>
+      <c r="T42" s="19" t="n"/>
+      <c r="U42" s="20">
+        <f>IFERROR(VLOOKUP(T42,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V42" s="60">
+        <f>IFERROR(VLOOKUP(T42,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W42" s="61">
+        <f>IFERROR(VLOOKUP(U42,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="19" t="n"/>
+      <c r="C43" s="20">
+        <f>IFERROR(VLOOKUP(B43,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D43" s="60">
+        <f>IFERROR(VLOOKUP(B43,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E43" s="61">
+        <f>IFERROR(VLOOKUP(C43,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F43" s="59" t="n"/>
+      <c r="G43" s="5" t="n"/>
+      <c r="H43" s="19" t="n"/>
+      <c r="I43" s="20">
+        <f>IFERROR(VLOOKUP(H43,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="60">
+        <f>IFERROR(VLOOKUP(H43,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K43" s="61">
+        <f>IFERROR(VLOOKUP(I43,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L43" s="59" t="n"/>
+      <c r="M43" s="5" t="n"/>
+      <c r="N43" s="19" t="n"/>
+      <c r="O43" s="20">
+        <f>IFERROR(VLOOKUP(N43,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P43" s="60">
+        <f>IFERROR(VLOOKUP(N43,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q43" s="61">
+        <f>IFERROR(VLOOKUP(O43,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R43" s="59" t="n"/>
+      <c r="S43" s="5" t="n"/>
+      <c r="T43" s="19" t="n"/>
+      <c r="U43" s="20">
+        <f>IFERROR(VLOOKUP(T43,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V43" s="60">
+        <f>IFERROR(VLOOKUP(T43,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W43" s="61">
+        <f>IFERROR(VLOOKUP(U43,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n"/>
+      <c r="B44" s="19" t="n"/>
+      <c r="C44" s="20">
+        <f>IFERROR(VLOOKUP(B44,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D44" s="60">
+        <f>IFERROR(VLOOKUP(B44,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E44" s="61">
+        <f>IFERROR(VLOOKUP(C44,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F44" s="59" t="n"/>
+      <c r="G44" s="5" t="n"/>
+      <c r="H44" s="19" t="n"/>
+      <c r="I44" s="20">
+        <f>IFERROR(VLOOKUP(H44,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="60">
+        <f>IFERROR(VLOOKUP(H44,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="61">
+        <f>IFERROR(VLOOKUP(I44,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L44" s="59" t="n"/>
+      <c r="M44" s="5" t="n"/>
+      <c r="N44" s="19" t="n"/>
+      <c r="O44" s="20">
+        <f>IFERROR(VLOOKUP(N44,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P44" s="60">
+        <f>IFERROR(VLOOKUP(N44,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q44" s="61">
+        <f>IFERROR(VLOOKUP(O44,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R44" s="59" t="n"/>
+      <c r="S44" s="5" t="n"/>
+      <c r="T44" s="19" t="n"/>
+      <c r="U44" s="20">
+        <f>IFERROR(VLOOKUP(T44,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V44" s="60">
+        <f>IFERROR(VLOOKUP(T44,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W44" s="61">
+        <f>IFERROR(VLOOKUP(U44,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="23" t="n"/>
+      <c r="C45" s="24">
+        <f>IFERROR(VLOOKUP(B45,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D45" s="62">
+        <f>IFERROR(VLOOKUP(B45,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E45" s="63">
+        <f>IFERROR(VLOOKUP(C45,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F45" s="59" t="n"/>
+      <c r="G45" s="5" t="n"/>
+      <c r="H45" s="23" t="n"/>
+      <c r="I45" s="24">
+        <f>IFERROR(VLOOKUP(H45,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="62">
+        <f>IFERROR(VLOOKUP(H45,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="63">
+        <f>IFERROR(VLOOKUP(I45,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L45" s="59" t="n"/>
+      <c r="M45" s="5" t="n"/>
+      <c r="N45" s="23" t="n"/>
+      <c r="O45" s="24">
+        <f>IFERROR(VLOOKUP(N45,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P45" s="62">
+        <f>IFERROR(VLOOKUP(N45,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q45" s="63">
+        <f>IFERROR(VLOOKUP(O45,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R45" s="59" t="n"/>
+      <c r="S45" s="5" t="n"/>
+      <c r="T45" s="23" t="n"/>
+      <c r="U45" s="24">
+        <f>IFERROR(VLOOKUP(T45,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V45" s="62">
+        <f>IFERROR(VLOOKUP(T45,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W45" s="63">
+        <f>IFERROR(VLOOKUP(U45,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A46" s="3" t="n"/>
+      <c r="B46" s="3" t="n"/>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="n"/>
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="5" t="n"/>
+      <c r="H46" s="3" t="n"/>
+      <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="5" t="n"/>
+      <c r="N46" s="3" t="n"/>
+      <c r="O46" s="3" t="n"/>
+      <c r="P46" s="3" t="n"/>
+      <c r="Q46" s="3" t="n"/>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="5" t="n"/>
+      <c r="T46" s="3" t="n"/>
+      <c r="U46" s="3" t="n"/>
+      <c r="V46" s="3" t="n"/>
+      <c r="W46" s="3" t="n"/>
+    </row>
+    <row r="47" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>2파티</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="5" t="n"/>
+      <c r="H47" s="9" t="inlineStr">
+        <is>
+          <t>2파티</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="5" t="n"/>
+      <c r="N47" s="9" t="inlineStr">
+        <is>
+          <t>2파티</t>
+        </is>
+      </c>
+      <c r="O47" s="3" t="n"/>
+      <c r="P47" s="3" t="n"/>
+      <c r="Q47" s="3" t="n"/>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="5" t="n"/>
+      <c r="T47" s="9" t="inlineStr">
+        <is>
+          <t>2파티</t>
+        </is>
+      </c>
+      <c r="U47" s="3" t="n"/>
+      <c r="V47" s="3" t="n"/>
+      <c r="W47" s="3" t="n"/>
+    </row>
+    <row r="48" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A48" s="3" t="n"/>
+      <c r="B48" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="C48" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="D48" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="E48" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="5" t="n"/>
+      <c r="H48" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="I48" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="J48" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="K48" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="5" t="n"/>
+      <c r="N48" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="O48" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="P48" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="Q48" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="5" t="n"/>
+      <c r="T48" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="U48" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="V48" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="W48" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="17" t="n"/>
+      <c r="C49" s="18">
+        <f>IFERROR(VLOOKUP(B49,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D49" s="57">
+        <f>IFERROR(VLOOKUP(B49,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E49" s="58">
+        <f>IFERROR(VLOOKUP(C49,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F49" s="59" t="n"/>
+      <c r="G49" s="5" t="n"/>
+      <c r="H49" s="17" t="n"/>
+      <c r="I49" s="18">
+        <f>IFERROR(VLOOKUP(H49,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="57">
+        <f>IFERROR(VLOOKUP(H49,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K49" s="58">
+        <f>IFERROR(VLOOKUP(I49,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L49" s="59" t="n"/>
+      <c r="M49" s="5" t="n"/>
+      <c r="N49" s="17" t="n"/>
+      <c r="O49" s="18">
+        <f>IFERROR(VLOOKUP(N49,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P49" s="57">
+        <f>IFERROR(VLOOKUP(N49,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q49" s="58">
+        <f>IFERROR(VLOOKUP(O49,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R49" s="59" t="n"/>
+      <c r="S49" s="5" t="n"/>
+      <c r="T49" s="17" t="n"/>
+      <c r="U49" s="18">
+        <f>IFERROR(VLOOKUP(T49,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V49" s="57">
+        <f>IFERROR(VLOOKUP(T49,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W49" s="58">
+        <f>IFERROR(VLOOKUP(U49,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n"/>
+      <c r="B50" s="19" t="n"/>
+      <c r="C50" s="20">
+        <f>IFERROR(VLOOKUP(B50,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D50" s="60">
+        <f>IFERROR(VLOOKUP(B50,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E50" s="61">
+        <f>IFERROR(VLOOKUP(C50,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F50" s="59" t="n"/>
+      <c r="G50" s="5" t="n"/>
+      <c r="H50" s="19" t="n"/>
+      <c r="I50" s="20">
+        <f>IFERROR(VLOOKUP(H50,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="60">
+        <f>IFERROR(VLOOKUP(H50,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K50" s="61">
+        <f>IFERROR(VLOOKUP(I50,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L50" s="59" t="n"/>
+      <c r="M50" s="5" t="n"/>
+      <c r="N50" s="19" t="n"/>
+      <c r="O50" s="20">
+        <f>IFERROR(VLOOKUP(N50,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P50" s="60">
+        <f>IFERROR(VLOOKUP(N50,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q50" s="61">
+        <f>IFERROR(VLOOKUP(O50,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R50" s="59" t="n"/>
+      <c r="S50" s="5" t="n"/>
+      <c r="T50" s="19" t="n"/>
+      <c r="U50" s="20">
+        <f>IFERROR(VLOOKUP(T50,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V50" s="60">
+        <f>IFERROR(VLOOKUP(T50,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W50" s="61">
+        <f>IFERROR(VLOOKUP(U50,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="19" t="n"/>
+      <c r="C51" s="20">
+        <f>IFERROR(VLOOKUP(B51,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D51" s="60">
+        <f>IFERROR(VLOOKUP(B51,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E51" s="61">
+        <f>IFERROR(VLOOKUP(C51,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F51" s="59" t="n"/>
+      <c r="G51" s="5" t="n"/>
+      <c r="H51" s="19" t="n"/>
+      <c r="I51" s="20">
+        <f>IFERROR(VLOOKUP(H51,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J51" s="60">
+        <f>IFERROR(VLOOKUP(H51,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K51" s="61">
+        <f>IFERROR(VLOOKUP(I51,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L51" s="59" t="n"/>
+      <c r="M51" s="5" t="n"/>
+      <c r="N51" s="19" t="n"/>
+      <c r="O51" s="20">
+        <f>IFERROR(VLOOKUP(N51,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P51" s="60">
+        <f>IFERROR(VLOOKUP(N51,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q51" s="61">
+        <f>IFERROR(VLOOKUP(O51,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R51" s="59" t="n"/>
+      <c r="S51" s="5" t="n"/>
+      <c r="T51" s="19" t="n"/>
+      <c r="U51" s="20">
+        <f>IFERROR(VLOOKUP(T51,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V51" s="60">
+        <f>IFERROR(VLOOKUP(T51,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W51" s="61">
+        <f>IFERROR(VLOOKUP(U51,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n"/>
+      <c r="B52" s="19" t="n"/>
+      <c r="C52" s="20">
+        <f>IFERROR(VLOOKUP(B52,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D52" s="60">
+        <f>IFERROR(VLOOKUP(B52,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E52" s="61">
+        <f>IFERROR(VLOOKUP(C52,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F52" s="59" t="n"/>
+      <c r="G52" s="5" t="n"/>
+      <c r="H52" s="19" t="n"/>
+      <c r="I52" s="20">
+        <f>IFERROR(VLOOKUP(H52,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="60">
+        <f>IFERROR(VLOOKUP(H52,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K52" s="61">
+        <f>IFERROR(VLOOKUP(I52,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L52" s="59" t="n"/>
+      <c r="M52" s="5" t="n"/>
+      <c r="N52" s="19" t="n"/>
+      <c r="O52" s="20">
+        <f>IFERROR(VLOOKUP(N52,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P52" s="60">
+        <f>IFERROR(VLOOKUP(N52,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q52" s="61">
+        <f>IFERROR(VLOOKUP(O52,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R52" s="59" t="n"/>
+      <c r="S52" s="5" t="n"/>
+      <c r="T52" s="19" t="n"/>
+      <c r="U52" s="20">
+        <f>IFERROR(VLOOKUP(T52,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V52" s="60">
+        <f>IFERROR(VLOOKUP(T52,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W52" s="61">
+        <f>IFERROR(VLOOKUP(U52,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="19" t="n"/>
+      <c r="C53" s="20">
+        <f>IFERROR(VLOOKUP(B53,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D53" s="60">
+        <f>IFERROR(VLOOKUP(B53,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E53" s="61">
+        <f>IFERROR(VLOOKUP(C53,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="59" t="n"/>
+      <c r="G53" s="5" t="n"/>
+      <c r="H53" s="19" t="n"/>
+      <c r="I53" s="20">
+        <f>IFERROR(VLOOKUP(H53,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J53" s="60">
+        <f>IFERROR(VLOOKUP(H53,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K53" s="61">
+        <f>IFERROR(VLOOKUP(I53,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L53" s="59" t="n"/>
+      <c r="M53" s="5" t="n"/>
+      <c r="N53" s="19" t="n"/>
+      <c r="O53" s="20">
+        <f>IFERROR(VLOOKUP(N53,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P53" s="60">
+        <f>IFERROR(VLOOKUP(N53,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q53" s="61">
+        <f>IFERROR(VLOOKUP(O53,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R53" s="59" t="n"/>
+      <c r="S53" s="5" t="n"/>
+      <c r="T53" s="19" t="n"/>
+      <c r="U53" s="20">
+        <f>IFERROR(VLOOKUP(T53,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V53" s="60">
+        <f>IFERROR(VLOOKUP(T53,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W53" s="61">
+        <f>IFERROR(VLOOKUP(U53,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A54" s="3" t="n"/>
+      <c r="B54" s="23" t="n"/>
+      <c r="C54" s="24">
+        <f>IFERROR(VLOOKUP(B54,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D54" s="62">
+        <f>IFERROR(VLOOKUP(B54,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E54" s="63">
+        <f>IFERROR(VLOOKUP(C54,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F54" s="59" t="n"/>
+      <c r="G54" s="5" t="n"/>
+      <c r="H54" s="23" t="n"/>
+      <c r="I54" s="24">
+        <f>IFERROR(VLOOKUP(H54,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J54" s="62">
+        <f>IFERROR(VLOOKUP(H54,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K54" s="63">
+        <f>IFERROR(VLOOKUP(I54,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L54" s="59" t="n"/>
+      <c r="M54" s="5" t="n"/>
+      <c r="N54" s="23" t="n"/>
+      <c r="O54" s="24">
+        <f>IFERROR(VLOOKUP(N54,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P54" s="62">
+        <f>IFERROR(VLOOKUP(N54,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q54" s="63">
+        <f>IFERROR(VLOOKUP(O54,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R54" s="59" t="n"/>
+      <c r="S54" s="5" t="n"/>
+      <c r="T54" s="23" t="n"/>
+      <c r="U54" s="24">
+        <f>IFERROR(VLOOKUP(T54,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V54" s="62">
+        <f>IFERROR(VLOOKUP(T54,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W54" s="63">
+        <f>IFERROR(VLOOKUP(U54,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A55" s="3" t="n"/>
+      <c r="B55" s="3" t="n"/>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="5" t="n"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="5" t="n"/>
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="n"/>
+      <c r="P55" s="3" t="n"/>
+      <c r="Q55" s="3" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="5" t="n"/>
+      <c r="T55" s="3" t="n"/>
+      <c r="U55" s="3" t="n"/>
+      <c r="V55" s="3" t="n"/>
+      <c r="W55" s="3" t="n"/>
+    </row>
+    <row r="56" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A56" s="3" t="n"/>
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>3파티</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="n"/>
+      <c r="D56" s="3" t="n"/>
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="5" t="n"/>
+      <c r="H56" s="9" t="inlineStr">
+        <is>
+          <t>3파티</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="n"/>
+      <c r="J56" s="3" t="n"/>
+      <c r="K56" s="3" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="5" t="n"/>
+      <c r="N56" s="9" t="inlineStr">
+        <is>
+          <t>3파티</t>
+        </is>
+      </c>
+      <c r="O56" s="3" t="n"/>
+      <c r="P56" s="3" t="n"/>
+      <c r="Q56" s="3" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="5" t="n"/>
+      <c r="T56" s="9" t="inlineStr">
+        <is>
+          <t>3파티</t>
+        </is>
+      </c>
+      <c r="U56" s="3" t="n"/>
+      <c r="V56" s="3" t="n"/>
+      <c r="W56" s="3" t="n"/>
+    </row>
+    <row r="57" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A57" s="3" t="n"/>
+      <c r="B57" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="C57" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="D57" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="E57" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="5" t="n"/>
+      <c r="H57" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="I57" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="J57" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="K57" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="5" t="n"/>
+      <c r="N57" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="O57" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="P57" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="Q57" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="5" t="n"/>
+      <c r="T57" s="56" t="inlineStr">
+        <is>
+          <t>닉네임</t>
+        </is>
+      </c>
+      <c r="U57" s="10" t="inlineStr">
+        <is>
+          <t>직업</t>
+        </is>
+      </c>
+      <c r="V57" s="10" t="inlineStr">
+        <is>
+          <t>무릉</t>
+        </is>
+      </c>
+      <c r="W57" s="11" t="inlineStr">
+        <is>
+          <t>극딜주기</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n"/>
+      <c r="B58" s="17" t="n"/>
+      <c r="C58" s="18">
+        <f>IFERROR(VLOOKUP(B58,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D58" s="57">
+        <f>IFERROR(VLOOKUP(B58,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E58" s="58">
+        <f>IFERROR(VLOOKUP(C58,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="59" t="n"/>
+      <c r="G58" s="5" t="n"/>
+      <c r="H58" s="17" t="n"/>
+      <c r="I58" s="18">
+        <f>IFERROR(VLOOKUP(H58,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="57">
+        <f>IFERROR(VLOOKUP(H58,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K58" s="58">
+        <f>IFERROR(VLOOKUP(I58,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L58" s="59" t="n"/>
+      <c r="M58" s="5" t="n"/>
+      <c r="N58" s="17" t="n"/>
+      <c r="O58" s="18">
+        <f>IFERROR(VLOOKUP(N58,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P58" s="57">
+        <f>IFERROR(VLOOKUP(N58,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="58">
+        <f>IFERROR(VLOOKUP(O58,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R58" s="59" t="n"/>
+      <c r="S58" s="5" t="n"/>
+      <c r="T58" s="17" t="n"/>
+      <c r="U58" s="18">
+        <f>IFERROR(VLOOKUP(T58,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V58" s="57">
+        <f>IFERROR(VLOOKUP(T58,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W58" s="58">
+        <f>IFERROR(VLOOKUP(U58,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n"/>
+      <c r="B59" s="19" t="n"/>
+      <c r="C59" s="20">
+        <f>IFERROR(VLOOKUP(B59,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="60">
+        <f>IFERROR(VLOOKUP(B59,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="61">
+        <f>IFERROR(VLOOKUP(C59,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F59" s="59" t="n"/>
+      <c r="G59" s="5" t="n"/>
+      <c r="H59" s="19" t="n"/>
+      <c r="I59" s="20">
+        <f>IFERROR(VLOOKUP(H59,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J59" s="60">
+        <f>IFERROR(VLOOKUP(H59,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K59" s="61">
+        <f>IFERROR(VLOOKUP(I59,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L59" s="59" t="n"/>
+      <c r="M59" s="5" t="n"/>
+      <c r="N59" s="19" t="n"/>
+      <c r="O59" s="20">
+        <f>IFERROR(VLOOKUP(N59,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P59" s="60">
+        <f>IFERROR(VLOOKUP(N59,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="61">
+        <f>IFERROR(VLOOKUP(O59,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R59" s="59" t="n"/>
+      <c r="S59" s="5" t="n"/>
+      <c r="T59" s="19" t="n"/>
+      <c r="U59" s="20">
+        <f>IFERROR(VLOOKUP(T59,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V59" s="60">
+        <f>IFERROR(VLOOKUP(T59,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W59" s="61">
+        <f>IFERROR(VLOOKUP(U59,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n"/>
+      <c r="B60" s="19" t="n"/>
+      <c r="C60" s="20">
+        <f>IFERROR(VLOOKUP(B60,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D60" s="60">
+        <f>IFERROR(VLOOKUP(B60,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E60" s="61">
+        <f>IFERROR(VLOOKUP(C60,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F60" s="59" t="n"/>
+      <c r="G60" s="5" t="n"/>
+      <c r="H60" s="19" t="n"/>
+      <c r="I60" s="20">
+        <f>IFERROR(VLOOKUP(H60,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J60" s="60">
+        <f>IFERROR(VLOOKUP(H60,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K60" s="61">
+        <f>IFERROR(VLOOKUP(I60,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L60" s="59" t="n"/>
+      <c r="M60" s="5" t="n"/>
+      <c r="N60" s="19" t="n"/>
+      <c r="O60" s="20">
+        <f>IFERROR(VLOOKUP(N60,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P60" s="60">
+        <f>IFERROR(VLOOKUP(N60,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q60" s="61">
+        <f>IFERROR(VLOOKUP(O60,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R60" s="59" t="n"/>
+      <c r="S60" s="5" t="n"/>
+      <c r="T60" s="19" t="n"/>
+      <c r="U60" s="20">
+        <f>IFERROR(VLOOKUP(T60,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V60" s="60">
+        <f>IFERROR(VLOOKUP(T60,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W60" s="61">
+        <f>IFERROR(VLOOKUP(U60,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n"/>
+      <c r="B61" s="19" t="n"/>
+      <c r="C61" s="20">
+        <f>IFERROR(VLOOKUP(B61,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D61" s="60">
+        <f>IFERROR(VLOOKUP(B61,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E61" s="61">
+        <f>IFERROR(VLOOKUP(C61,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F61" s="59" t="n"/>
+      <c r="G61" s="5" t="n"/>
+      <c r="H61" s="19" t="n"/>
+      <c r="I61" s="20">
+        <f>IFERROR(VLOOKUP(H61,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J61" s="60">
+        <f>IFERROR(VLOOKUP(H61,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K61" s="61">
+        <f>IFERROR(VLOOKUP(I61,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L61" s="59" t="n"/>
+      <c r="M61" s="5" t="n"/>
+      <c r="N61" s="19" t="n"/>
+      <c r="O61" s="20">
+        <f>IFERROR(VLOOKUP(N61,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P61" s="60">
+        <f>IFERROR(VLOOKUP(N61,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q61" s="61">
+        <f>IFERROR(VLOOKUP(O61,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R61" s="59" t="n"/>
+      <c r="S61" s="5" t="n"/>
+      <c r="T61" s="19" t="n"/>
+      <c r="U61" s="20">
+        <f>IFERROR(VLOOKUP(T61,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V61" s="60">
+        <f>IFERROR(VLOOKUP(T61,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W61" s="61">
+        <f>IFERROR(VLOOKUP(U61,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n"/>
+      <c r="B62" s="19" t="n"/>
+      <c r="C62" s="20">
+        <f>IFERROR(VLOOKUP(B62,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D62" s="60">
+        <f>IFERROR(VLOOKUP(B62,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E62" s="61">
+        <f>IFERROR(VLOOKUP(C62,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F62" s="59" t="n"/>
+      <c r="G62" s="5" t="n"/>
+      <c r="H62" s="19" t="n"/>
+      <c r="I62" s="20">
+        <f>IFERROR(VLOOKUP(H62,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J62" s="60">
+        <f>IFERROR(VLOOKUP(H62,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K62" s="61">
+        <f>IFERROR(VLOOKUP(I62,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L62" s="59" t="n"/>
+      <c r="M62" s="5" t="n"/>
+      <c r="N62" s="19" t="n"/>
+      <c r="O62" s="20">
+        <f>IFERROR(VLOOKUP(N62,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P62" s="60">
+        <f>IFERROR(VLOOKUP(N62,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="61">
+        <f>IFERROR(VLOOKUP(O62,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R62" s="59" t="n"/>
+      <c r="S62" s="5" t="n"/>
+      <c r="T62" s="19" t="n"/>
+      <c r="U62" s="20">
+        <f>IFERROR(VLOOKUP(T62,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V62" s="60">
+        <f>IFERROR(VLOOKUP(T62,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W62" s="61">
+        <f>IFERROR(VLOOKUP(U62,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A63" s="3" t="n"/>
+      <c r="B63" s="23" t="n"/>
+      <c r="C63" s="24">
+        <f>IFERROR(VLOOKUP(B63,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D63" s="62">
+        <f>IFERROR(VLOOKUP(B63,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E63" s="63">
+        <f>IFERROR(VLOOKUP(C63,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F63" s="59" t="n"/>
+      <c r="G63" s="5" t="n"/>
+      <c r="H63" s="23" t="n"/>
+      <c r="I63" s="24">
+        <f>IFERROR(VLOOKUP(H63,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J63" s="62">
+        <f>IFERROR(VLOOKUP(H63,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="63">
+        <f>IFERROR(VLOOKUP(I63,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L63" s="59" t="n"/>
+      <c r="M63" s="5" t="n"/>
+      <c r="N63" s="23" t="n"/>
+      <c r="O63" s="24">
+        <f>IFERROR(VLOOKUP(N63,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P63" s="62">
+        <f>IFERROR(VLOOKUP(N63,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q63" s="63">
+        <f>IFERROR(VLOOKUP(O63,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R63" s="59" t="n"/>
+      <c r="S63" s="5" t="n"/>
+      <c r="T63" s="23" t="n"/>
+      <c r="U63" s="24">
+        <f>IFERROR(VLOOKUP(T63,'길드원 목록'!$A$2:$F$201,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="V63" s="62">
+        <f>IFERROR(VLOOKUP(T63,'길드원 목록'!$A$2:$F$201,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="W63" s="63">
+        <f>IFERROR(VLOOKUP(U63,극딜주기!$B$2:$C$44,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="0"/>
+</worksheet>
 </file>
--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -1073,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,96 +1116,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>쿵지</t>
+          <t>상해다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>더엔도적</t>
+          <t>브리바첸</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>268</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>민기민괴도</t>
+          <t>쮸에몬</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1227,93 +1227,93 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>준대</t>
+          <t>내누모아</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>또속니친구야</t>
+          <t>랄로님이다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>탑클</t>
+          <t>현최</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>259</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1323,140 +1323,140 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>재수강</t>
+          <t>콤콤</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2019년  8월 25일</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>용띨</t>
+          <t>탑클</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>놀토카퓨</t>
+          <t>뉴둥</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>진주콰외구함</t>
+          <t>재수강</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1468,113 +1468,113 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>현최</t>
+          <t>세졍</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>세졍</t>
+          <t>민기민괴도</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>아란접을래</t>
+          <t>더엔도적</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>검사직업up</t>
+          <t>욕엉</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1584,140 +1584,140 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>욕엉</t>
+          <t>한선생</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>봉인된일리움</t>
+          <t>검사직업up</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>일리움</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>얼음은각얼음</t>
+          <t>후인돌</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>반화련</t>
+          <t>쿵지</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>253</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1749,24 +1749,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>뉴둥</t>
+          <t>준대</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1781,71 +1781,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aremene</t>
+          <t>반화련</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>쿠무스</t>
+          <t>용띨</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  12월 20일</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1884,32 +1884,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>랄로님이다</t>
+          <t>또속니친구야</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1936,44 +1936,44 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>한선생</t>
+          <t>왁싱교수</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>카인</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2012,17 +2012,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>뻬줘</t>
+          <t>얼음은각얼음</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2032,204 +2032,204 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>구칠이년</t>
+          <t>게배린</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>신속한에반</t>
+          <t>례봬</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>롱형</t>
+          <t>신속한에반</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>눈산토끼</t>
+          <t>독새</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2020년  11월 8일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>동녘동옥돌민</t>
+          <t>구칠이년</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>킁카츄</t>
+          <t>셋롬</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>미하일</t>
+          <t>플레임위자드</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2268,49 +2268,49 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>셔노</t>
+          <t>뻬줘</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>짱난잉</t>
+          <t>Aremene</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2320,29 +2320,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>경슥</t>
+          <t>셔노</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
@@ -2396,64 +2396,64 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>토성씨</t>
+          <t>진주콰외구함</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>StoneIdol</t>
+          <t>동녘동옥돌민</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2475,17 +2475,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
@@ -2524,177 +2524,177 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>관악구자취러</t>
+          <t>봉인된일리움</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>일리움</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>쮸에몬</t>
+          <t>짱난잉</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>도챙</t>
+          <t>관악구자취러</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>브리바첸</t>
+          <t>소원옷</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>270</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>벽을넘은사람</t>
+          <t>킁카츄</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>미하일</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>현수기인</t>
+          <t>숄볼</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2709,327 +2709,327 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>윤머현</t>
+          <t>지원뀨</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2019년  12월 15일</t>
+          <t>2020년  8월 30일</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>묘이미나로</t>
+          <t>레드벨벳주현</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>은괴</t>
+          <t>애르니로</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>다크나이트</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2020년  10월 25일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>현셔는연수꺼</t>
+          <t>왕눈이에깅</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>아란</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>숄볼</t>
+          <t>비단니트</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>시끌벅적듀블</t>
+          <t>윤머현</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2019년  12월 15일</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>마약굴국밥</t>
+          <t>벽을넘은사람</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>애르니로</t>
+          <t>relize</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  1월 24일</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>이녁</t>
+          <t>좀있다변경</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>팬텀</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2020년  11월 1일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>주뎅키네시스</t>
+          <t>삠윤</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3068,81 +3068,81 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>뮤다양</t>
+          <t>경슥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>여캐나능</t>
+          <t>스라맘</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>채희냥</t>
+          <t>옐로a</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3152,34 +3152,34 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>앨로디</t>
+          <t>마약굴국밥</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>키네시스</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3189,499 +3189,499 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2020년  11월 15일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>흰색난닝구</t>
+          <t>뮤다양</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>졔즈</t>
+          <t>벨러론드</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>비뉴방울oO</t>
+          <t>표펨</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>물밤</t>
+          <t>앨로디</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>249</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2020년  11월 15일</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>김콧치냥</t>
+          <t>간zl승욱</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>지원뀨</t>
+          <t>숫엔뀨</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2020년  8월 30일</t>
+          <t>2020년  10월 11일</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>찐찐우</t>
+          <t>쿨브로아델</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>례봬</t>
+          <t>은괴</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>다크나이트</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>간zl승욱</t>
+          <t>태양신이될놈</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  12월 6일</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>포뇨과</t>
+          <t>뚜희s</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>카인</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>달빛질녘</t>
+          <t>포뇨과</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>제논</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>태양신이될놈</t>
+          <t>그남자는안돼</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2020년  12월 6일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>relize</t>
+          <t>현셔는연수꺼</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>메르세데스</t>
+          <t>아란</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>레드벨벳주현</t>
+          <t>이녁</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>메르세데스</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  11월 1일</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>오전이래요</t>
+          <t>채희냥</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>그남자는안돼</t>
+          <t>물밤</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3691,29 +3691,29 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>데르테디</t>
+          <t>김콧치냥</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3723,290 +3723,290 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>삠윤</t>
+          <t>상심</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>깜둥이창지기</t>
+          <t>내섭그거</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>다크나이트</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021년  1월 17일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>비단니트</t>
+          <t>현수기인</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>반의반숙계란</t>
+          <t>딩쪼님</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>숫엔뀨</t>
+          <t>달빛질녘</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>제논</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2020년  10월 11일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>체인맞고심리</t>
+          <t>경삭</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>카데나</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>좀있다변경</t>
+          <t>흰색난닝구</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>팬텀</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>스라맘</t>
+          <t>네라고해</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>네라고해</t>
+          <t>서울대맹구학</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>스트라이커</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4021,19 +4021,19 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RagSeIng</t>
+          <t>조인홍</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4043,88 +4043,88 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2020년  5월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>치즈위토마토</t>
+          <t>데르테디</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>왕눈이에깅</t>
+          <t>주뎅키네시스</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2019년  12월 22일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>상심</t>
+          <t>뿔또긍</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아크메이지(불,독)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4149,34 +4149,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2020년  12월 20일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>벨러론드</t>
+          <t>묘이미나로</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>243</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4188,209 +4188,209 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>루나어린이</t>
+          <t>냉현</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2020년  8월 9일</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>암호엥</t>
+          <t>곽당근</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>홍생강산초</t>
+          <t>RagSeIng</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  5월 24일</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>호돌너구리</t>
+          <t>시비르</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2020년  10월 4일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>소년선장</t>
+          <t>깜둥이창지기</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>다크나이트</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021년  1월 10일</t>
+          <t>2021년  1월 17일</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>띠르루</t>
+          <t>패파에폴트</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>포뇨에욤</t>
+          <t>tlfh</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4405,34 +4405,34 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>섀도구바</t>
+          <t>뽀짜밍</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4444,428 +4444,428 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>avoidnuff</t>
+          <t>분홍은월해요</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>은월</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Seel</t>
+          <t>오전이래요</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>홀윈브</t>
+          <t>뚜들벤</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>방구석빛쟁이</t>
+          <t>owenen</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bozy</t>
+          <t>어줍</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>에반</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2020년  7월 19일</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>쏘쏘혀로</t>
+          <t>재호오오옹</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>랄릎</t>
+          <t>쏘쏘혀로</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>나야상</t>
+          <t>홀윈브</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  9월 20일</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>서울대맹구학</t>
+          <t>시끌벅적듀블</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>스트라이커</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>분홍은월해요</t>
+          <t>소년선장</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>2021년  1월 10일</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>히릭</t>
+          <t>필승코찌</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>캐논마스터</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>안휘가람</t>
+          <t>YOLO지유</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>뽕짝스타</t>
+          <t>칼바람쟝이</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>신속한패파</t>
+          <t>망치엄마꺼</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4875,34 +4875,34 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2020년  5월 3일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>패파에폴트</t>
+          <t>avoidnuff</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4917,184 +4917,184 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>필승코찌</t>
+          <t>방구석빛쟁이</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>캐논마스터</t>
+          <t>루미너스</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>옐로a</t>
+          <t>뜨끔</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>아크메이지(불,독)</t>
+          <t>바이퍼</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  1월 5일</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>내섭그거</t>
+          <t>망치네썬콜</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>아크메이지(썬,콜)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>뚜들벤</t>
+          <t>갈마가든</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2020년  11월 22일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>망치엄마꺼</t>
+          <t>세야낭</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>신궁</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2020년  10월 18일</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>tlfh</t>
+          <t>띠르루</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5109,152 +5109,152 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>어줍</t>
+          <t>안래아</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>에반</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2020년  7월 19일</t>
+          <t>2021년  2월 21일</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>호돼준지</t>
+          <t>종만Oi</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>239</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>메카닉</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>돼호지준</t>
+          <t>횹쭐</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2020년  6월 21일</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>안래아</t>
+          <t>포뇨에욤</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>호영</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  3월 21일</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>갈마가든</t>
+          <t>아델구름</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5276,150 +5276,150 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>조뺘삐</t>
+          <t>수로거북</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>윈드브레이커</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  12월 27일</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>번잔</t>
+          <t>아스먕</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>아크아쿠마</t>
+          <t>준마밍</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>아크</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>수로거북</t>
+          <t>랄릎</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>윈드브레이커</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2020년  12월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>조선의박정수</t>
+          <t>마일전사</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5429,120 +5429,120 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2020년  9월 27일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>잇긍</t>
+          <t>하읏아파</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2020년  9월 6일</t>
+          <t>2020년  6월 14일</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>시비르</t>
+          <t>호돼준지</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>은월</t>
+          <t>메카닉</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>야채소보로</t>
+          <t>번잔</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>나이트워커</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2020년  10월 25일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>유희왕이철민</t>
+          <t>쁘마유</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5557,24 +5557,24 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>세야낭</t>
+          <t>어림없는심볼</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>신궁</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5589,179 +5589,179 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>모범승기</t>
+          <t>유희왕이철민</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>쁘마유</t>
+          <t>체인맞고심리</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>240</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>소울마스터</t>
+          <t>카데나</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>구월동김난로</t>
+          <t>안휘가람</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>호영</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>구운청경채</t>
+          <t>섀도구바</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>김생강산초</t>
+          <t>머숌</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>노왈</t>
+          <t>윽악을고</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5771,34 +5771,34 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>어깨빵1호</t>
+          <t>팅투투투투툭</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>미하일</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5820,17 +5820,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>띠요옹띨</t>
+          <t>팔쉭</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>팔라딘</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5840,125 +5840,125 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2019년  10월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>망치네썬콜</t>
+          <t>조선의박정수</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>아크메이지(썬,콜)</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2020년  10월 18일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>원기허벅지살</t>
+          <t>별사탕반디</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>섀도어</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2020년  9월 20일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>애테크</t>
+          <t>페라도</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>데몬어벤져</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021년  1월 24일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>팔쉭</t>
+          <t>삽도적</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5980,12 +5980,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>하읏아파</t>
+          <t>아델타공항</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5995,34 +5995,34 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2020년  6월 14일</t>
+          <t>2020년  9월 13일</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>세르니로</t>
+          <t>헝낙</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>신궁</t>
+          <t>플레임위자드</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6044,49 +6044,49 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>아델구름</t>
+          <t>포숑차차</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>카데나</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  2월 14일</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>StoneKaiser</t>
+          <t>띠요옹띨</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>카이저</t>
+          <t>팔라딘</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6096,61 +6096,61 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2019년  10월 20일</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CapeIIa</t>
+          <t>원기허벅지살</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>루미너스</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2018년  6월 24일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>모호아델</t>
+          <t>카논시자키</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>카인</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6172,17 +6172,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>동녘동고를균</t>
+          <t>프워비</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6204,17 +6204,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>분노의계란찜</t>
+          <t>혁돼충지</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>215</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>플레임위자드</t>
+          <t>아크</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6236,12 +6236,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>아스먕</t>
+          <t>Seel</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6268,17 +6268,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>캡티</t>
+          <t>화공과컴공</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6293,19 +6293,19 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021년  1월 3일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>셀리핥짝핥짝</t>
+          <t>플렉쭈</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6315,93 +6315,93 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2020년  2월 9일</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>수여식</t>
+          <t>분노의계란찜</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>플레임위자드</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>별사탕반디</t>
+          <t>신속한패파</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>섀도어</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  5월 3일</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>원차아닝</t>
+          <t>TTESLA</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6411,130 +6411,130 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021년  2월 27일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>윽악을고</t>
+          <t>아임쩡어</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>엔젤릭버스터</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021년  2월 7일</t>
+          <t>2020년  12월 13일</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>꿀범범</t>
+          <t>수여식</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>나이트로드</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2021년  2월 7일</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>페라도</t>
+          <t>호돌너구리</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2020년  10월 4일</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>참새와병아리</t>
+          <t>어깨빵1호</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>비숍</t>
+          <t>히어로</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6556,12 +6556,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>뽀짜밍</t>
+          <t>분홍분홍해영</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6571,34 +6571,34 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2021년  1월 31일</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>너프안됐으면</t>
+          <t>배털킁카츄</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>배틀메이지</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6620,113 +6620,113 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>플렉쭈</t>
+          <t>구운청경채</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2020년  2월 9일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>화공과컴공</t>
+          <t>너프안됐으면</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>227</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>나이트로드</t>
+          <t>아델</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>YOLO지유</t>
+          <t>세르니로</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>패스파인더</t>
+          <t>신궁</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>기록없음</t>
+          <t>2021년  3월 7일</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>전액</t>
+          <t>상담실</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>미하일</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6748,49 +6748,49 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>아델타공항</t>
+          <t>야채소보로</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>아델</t>
+          <t>나이트워커</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2020년  9월 13일</t>
+          <t>2020년  10월 25일</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>도와줘카봇</t>
+          <t>킁카츄21</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>히어로</t>
+          <t>메카닉</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6800,120 +6800,120 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2018년  7월 29일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>휴가다잉</t>
+          <t>키이네에시익</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>227</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>데몬어벤져</t>
+          <t>키네시스</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2019년  11월 3일</t>
+          <t>2021년  3월 14일</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>손야지</t>
+          <t>캡티</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>배틀메이지</t>
+          <t>패스파인더</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021년  2월 21일</t>
+          <t>2021년  1월 3일</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>아임쩡어</t>
+          <t>돼호지준</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>엔젤릭버스터</t>
+          <t>소울마스터</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2020년  12월 13일</t>
+          <t>2020년  9월 27일</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>삽도적</t>
+          <t>노왈</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>227</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6940,96 +6940,224 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>분홍분홍해영</t>
+          <t>참새와병아리</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>듀얼블레이더</t>
+          <t>비숍</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021년  1월 31일</t>
+          <t>기록없음</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>포숑차차</t>
+          <t>잇긍</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>231</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>카데나</t>
+          <t>듀얼블레이더</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021년  2월 14일</t>
+          <t>2020년  9월 6일</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>동녘동고를균</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>계란너겟</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
         <is>
           <t>제로</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>셀리핥짝핥짝</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021년  2월 21일</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>전액</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>미하일</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>기록없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>원차아닝</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>아델</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>

--- a/찹찹 길드원 현황.xlsx
+++ b/찹찹 길드원 현황.xlsx
@@ -1073,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,6054 +1110,6 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>최근 무릉 기록 일자</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>상해다</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2020년  12월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>브리바첸</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>데몬어벤져</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>쮸에몬</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>희철</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>팔라딘</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>내누모아</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>랄로님이다</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>현최</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>콤콤</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2019년  8월 25일</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>탑클</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>뉴둥</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>재수강</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>세졍</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>민기민괴도</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2021년  1월 10일</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>더엔도적</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>욕엉</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>한선생</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>검사직업up</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2020년  12월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>후인돌</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>쿵지</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>뚜안</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>스트라이커</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>준대</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>반화련</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2020년  11월 15일</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>용띨</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2020년  12월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>경시</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>또속니친구야</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>루미너스</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>절계</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>왁싱교수</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>카인</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>지평선</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>얼음은각얼음</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>아크메이지(썬,콜)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>게배린</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>례봬</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>신속한에반</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>독새</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>아란</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>구칠이년</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>셋롬</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>플레임위자드</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>오재용</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>뻬줘</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Aremene</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>메르세데스</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>셔노</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>루미너스</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2020년  9월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>시니영</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>진주콰외구함</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>동녘동옥돌민</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>은월</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2021년  1월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>기묘한대통령</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>EnergyBolt</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2020년  9월 6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>봉인된일리움</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>일리움</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>짱난잉</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>아란</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>관악구자취러</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>소원옷</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2021년  1월 10일</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>킁카츄</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>미하일</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>숄볼</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>지원뀨</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2020년  8월 30일</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>레드벨벳주현</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>아크메이지(썬,콜)</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>애르니로</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>왕눈이에깅</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>비단니트</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>윤머현</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2019년  12월 15일</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>벽을넘은사람</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2021년  1월 10일</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>relize</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>메르세데스</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2021년  1월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>좀있다변경</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>팬텀</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>삠윤</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>박이초</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>경슥</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2020년  11월 15일</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>스라맘</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>옐로a</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>마약굴국밥</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>아크메이지(썬,콜)</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>뮤다양</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>벨러론드</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>표펨</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>앨로디</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>키네시스</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2020년  11월 15일</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>간zl승욱</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>숫엔뀨</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2020년  10월 11일</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>쿨브로아델</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>은괴</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>다크나이트</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2020년  10월 25일</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>태양신이될놈</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2020년  12월 6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>뚜희s</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>카인</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>포뇨과</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>그남자는안돼</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>현셔는연수꺼</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>아란</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>이녁</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>메르세데스</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2020년  11월 1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>채희냥</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>키네시스</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>물밤</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2021년  1월 17일</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>김콧치냥</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>상심</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>내섭그거</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>현수기인</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>딩쪼님</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>달빛질녘</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>제논</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2021년  1월 17일</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>경삭</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>흰색난닝구</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>네라고해</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>서울대맹구학</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>스트라이커</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>조인홍</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>데르테디</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>주뎅키네시스</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>키네시스</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2020년  9월 6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>뿔또긍</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>아크메이지(불,독)</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>묘이미나로</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>냉현</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2020년  8월 9일</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>곽당근</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>아크메이지(썬,콜)</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>RagSeIng</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2020년  5월 24일</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>시비르</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>은월</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>깜둥이창지기</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>다크나이트</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2021년  1월 17일</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>패파에폴트</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2020년  12월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>tlfh</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>뽀짜밍</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>분홍은월해요</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>은월</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>오전이래요</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>뚜들벤</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>owenen</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>어줍</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>에반</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2020년  7월 19일</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>재호오오옹</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>쏘쏘혀로</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2020년  9월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>홀윈브</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2020년  9월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>시끌벅적듀블</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>소년선장</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2021년  1월 10일</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>필승코찌</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>캐논마스터</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>YOLO지유</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>칼바람쟝이</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>망치엄마꺼</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>avoidnuff</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2020년  5월 3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>방구석빛쟁이</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>루미너스</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>뜨끔</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>바이퍼</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2020년  1월 5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>망치네썬콜</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>아크메이지(썬,콜)</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>갈마가든</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>팔라딘</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>세야낭</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>신궁</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2020년  10월 18일</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>띠르루</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>안래아</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>종만Oi</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>횹쭐</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>2020년  6월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>포뇨에욤</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2021년  3월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>아델구름</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>수로거북</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>윈드브레이커</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>2020년  12월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>아스먕</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>준마밍</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>랄릎</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>마일전사</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>238</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>하읏아파</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>2020년  6월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>호돼준지</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>메카닉</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>번잔</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>쁘마유</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>어림없는심볼</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>유희왕이철민</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>체인맞고심리</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>카데나</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>안휘가람</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>섀도구바</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>머숌</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>윽악을고</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>팅투투투투툭</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>미하일</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>팔쉭</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>조선의박정수</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>2020년  9월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>별사탕반디</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>섀도어</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>페라도</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>데몬어벤져</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>삽도적</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>아델타공항</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>2020년  9월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>헝낙</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>플레임위자드</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>포숑차차</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>카데나</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>2021년  2월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>띠요옹띨</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>팔라딘</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>2019년  10월 20일</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>원기허벅지살</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>카논시자키</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>카인</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>프워비</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>혁돼충지</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>아크</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Seel</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>화공과컴공</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>플렉쭈</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>2020년  2월 9일</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>분노의계란찜</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>플레임위자드</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>신속한패파</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>2020년  5월 3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>TTESLA</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>아임쩡어</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>엔젤릭버스터</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>2020년  12월 13일</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>수여식</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>나이트로드</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>2021년  2월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>호돌너구리</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>2020년  10월 4일</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>어깨빵1호</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>히어로</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>분홍분홍해영</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>2021년  1월 31일</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>배털킁카츄</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>배틀메이지</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>구운청경채</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>너프안됐으면</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>세르니로</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>신궁</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>2021년  3월 7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>상담실</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>야채소보로</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>나이트워커</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>2020년  10월 25일</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>킁카츄21</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>메카닉</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>키이네에시익</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>키네시스</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>2021년  3월 14일</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>캡티</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>패스파인더</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>2021년  1월 3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>돼호지준</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>소울마스터</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>2020년  9월 27일</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>노왈</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>참새와병아리</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>비숍</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>잇긍</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>듀얼블레이더</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>2020년  9월 6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>동녘동고를균</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>계란너겟</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>제로</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>셀리핥짝핥짝</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>2021년  2월 21일</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>전액</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>미하일</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>기록없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>원차아닝</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>아델</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>2021년  2월 28일</t>
         </is>
       </c>
     </row>
